--- a/Pull Request Here/NewRatkinPlus - 1578693166/NewRatkinPlus - 1578693166.xlsx
+++ b/Pull Request Here/NewRatkinPlus - 1578693166/NewRatkinPlus - 1578693166.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{558497A0-E44B-4CF8-87CB-83E7AC7B5671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC9E3BA-4034-490C-A508-63AFE8E311C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15018,10 +15018,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>꽃돌봄이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Theodora</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -17018,6 +17014,10 @@
   </si>
   <si>
     <t>[PAWN_nameDef](은)는 건축현장에서 일하는 노동자입니다. [PAWN_pronoun]는 주로 지하 갱도를 건설하는 일을 해왔습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃돌보미</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -17618,7 +17618,7 @@
         <v>30</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>4925</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -18349,7 +18349,7 @@
         <v>148</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>5166</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -18502,7 +18502,7 @@
         <v>173</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>4926</v>
+        <v>4925</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -19947,7 +19947,7 @@
         <v>414</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>5241</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -20423,7 +20423,7 @@
         <v>3672</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>5163</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -20440,7 +20440,7 @@
         <v>3673</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>5164</v>
+        <v>5163</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -20457,7 +20457,7 @@
         <v>501</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>5165</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -20814,7 +20814,7 @@
         <v>562</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>5188</v>
+        <v>5187</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -20831,7 +20831,7 @@
         <v>565</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>5189</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -20865,7 +20865,7 @@
         <v>570</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>5190</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -20899,7 +20899,7 @@
         <v>576</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>5191</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -20933,7 +20933,7 @@
         <v>582</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>5192</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -20950,7 +20950,7 @@
         <v>585</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>5187</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -20984,7 +20984,7 @@
         <v>591</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>5185</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -21001,7 +21001,7 @@
         <v>594</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>5186</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -21120,7 +21120,7 @@
         <v>614</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>5193</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -21171,7 +21171,7 @@
         <v>623</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>5194</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -21222,7 +21222,7 @@
         <v>631</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>5184</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -21256,7 +21256,7 @@
         <v>637</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>5182</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -21307,7 +21307,7 @@
         <v>646</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>5183</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -21341,7 +21341,7 @@
         <v>652</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>5181</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -21375,7 +21375,7 @@
         <v>656</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>5180</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -21392,7 +21392,7 @@
         <v>659</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>5179</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -21409,7 +21409,7 @@
         <v>662</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>5178</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -21460,7 +21460,7 @@
         <v>671</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>5177</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -21477,7 +21477,7 @@
         <v>674</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>5176</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -21494,7 +21494,7 @@
         <v>677</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>5175</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
@@ -21562,7 +21562,7 @@
         <v>687</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>4938</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -21596,7 +21596,7 @@
         <v>692</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>5195</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
@@ -21695,7 +21695,7 @@
         <v>3733</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>5174</v>
+        <v>5173</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>3734</v>
@@ -21709,7 +21709,7 @@
         <v>694</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>5173</v>
+        <v>5172</v>
       </c>
       <c r="E252" s="1" t="s">
         <v>3735</v>
@@ -21783,7 +21783,7 @@
         <v>3740</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>4907</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
@@ -21800,7 +21800,7 @@
         <v>717</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>4908</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -21817,7 +21817,7 @@
         <v>720</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>4909</v>
+        <v>4908</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -21834,7 +21834,7 @@
         <v>723</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>4910</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -21851,7 +21851,7 @@
         <v>726</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>4911</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
@@ -21868,7 +21868,7 @@
         <v>729</v>
       </c>
       <c r="F261" s="3" t="s">
-        <v>4912</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -21885,7 +21885,7 @@
         <v>732</v>
       </c>
       <c r="F262" s="3" t="s">
-        <v>4913</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
@@ -21902,7 +21902,7 @@
         <v>735</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>4914</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
@@ -21919,7 +21919,7 @@
         <v>738</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>4915</v>
+        <v>4914</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -21936,7 +21936,7 @@
         <v>741</v>
       </c>
       <c r="F265" s="3" t="s">
-        <v>4916</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -21953,7 +21953,7 @@
         <v>744</v>
       </c>
       <c r="F266" s="3" t="s">
-        <v>4917</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -21970,7 +21970,7 @@
         <v>747</v>
       </c>
       <c r="F267" s="3" t="s">
-        <v>4918</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -21987,7 +21987,7 @@
         <v>750</v>
       </c>
       <c r="F268" s="3" t="s">
-        <v>4919</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -22004,7 +22004,7 @@
         <v>753</v>
       </c>
       <c r="F269" s="3" t="s">
-        <v>4920</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -22021,7 +22021,7 @@
         <v>756</v>
       </c>
       <c r="F270" s="3" t="s">
-        <v>4921</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -22038,7 +22038,7 @@
         <v>759</v>
       </c>
       <c r="F271" s="3" t="s">
-        <v>4922</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
@@ -22055,7 +22055,7 @@
         <v>726</v>
       </c>
       <c r="F272" s="3" t="s">
-        <v>4911</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
@@ -22072,7 +22072,7 @@
         <v>764</v>
       </c>
       <c r="F273" s="3" t="s">
-        <v>4923</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
@@ -22089,7 +22089,7 @@
         <v>767</v>
       </c>
       <c r="F274" s="3" t="s">
-        <v>4924</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -22498,7 +22498,7 @@
         <v>833</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>4906</v>
+        <v>4905</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
@@ -23047,7 +23047,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>4927</v>
+        <v>4926</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>926</v>
@@ -23064,32 +23064,32 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>4928</v>
+        <v>4927</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>926</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>4930</v>
+        <v>4929</v>
       </c>
       <c r="E332" s="3"/>
       <c r="F332" s="3" t="s">
-        <v>4932</v>
+        <v>4931</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>4929</v>
+        <v>4928</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>926</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>4931</v>
+        <v>4930</v>
       </c>
       <c r="E333" s="3"/>
       <c r="F333" s="3" t="s">
-        <v>4933</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -23511,7 +23511,7 @@
         <v>993</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>5213</v>
+        <v>5212</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>3826</v>
@@ -23545,10 +23545,10 @@
         <v>998</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>5197</v>
+        <v>5196</v>
       </c>
       <c r="F360" s="3" t="s">
-        <v>5199</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
@@ -23565,7 +23565,7 @@
         <v>1001</v>
       </c>
       <c r="F361" s="3" t="s">
-        <v>5198</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
@@ -23582,7 +23582,7 @@
         <v>1004</v>
       </c>
       <c r="F362" s="3" t="s">
-        <v>5201</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
@@ -23599,7 +23599,7 @@
         <v>1007</v>
       </c>
       <c r="F363" s="3" t="s">
-        <v>5202</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
@@ -23610,13 +23610,13 @@
         <v>976</v>
       </c>
       <c r="C364" s="1" t="s">
+        <v>5234</v>
+      </c>
+      <c r="E364" s="1" t="s">
         <v>5235</v>
       </c>
-      <c r="E364" s="1" t="s">
-        <v>5236</v>
-      </c>
       <c r="F364" s="3" t="s">
-        <v>5208</v>
+        <v>5207</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
@@ -23630,10 +23630,10 @@
         <v>1010</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>5205</v>
+        <v>5204</v>
       </c>
       <c r="F365" s="3" t="s">
-        <v>5207</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
@@ -23647,10 +23647,10 @@
         <v>1012</v>
       </c>
       <c r="E366" s="1" t="s">
+        <v>5209</v>
+      </c>
+      <c r="F366" s="3" t="s">
         <v>5210</v>
-      </c>
-      <c r="F366" s="3" t="s">
-        <v>5211</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
@@ -23667,7 +23667,7 @@
         <v>1015</v>
       </c>
       <c r="F367" s="3" t="s">
-        <v>5212</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
@@ -23684,7 +23684,7 @@
         <v>1018</v>
       </c>
       <c r="F368" s="3" t="s">
-        <v>5203</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
@@ -23701,7 +23701,7 @@
         <v>1021</v>
       </c>
       <c r="F369" s="3" t="s">
-        <v>5200</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
@@ -23715,10 +23715,10 @@
         <v>1023</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>5237</v>
+        <v>5236</v>
       </c>
       <c r="F370" s="3" t="s">
-        <v>5209</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
@@ -23732,10 +23732,10 @@
         <v>1025</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>5196</v>
+        <v>5195</v>
       </c>
       <c r="F371" s="3" t="s">
-        <v>5204</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
@@ -23752,7 +23752,7 @@
         <v>1028</v>
       </c>
       <c r="F372" s="3" t="s">
-        <v>5204</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
@@ -23769,7 +23769,7 @@
         <v>1031</v>
       </c>
       <c r="F373" s="3" t="s">
-        <v>5206</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
@@ -24789,7 +24789,7 @@
         <v>3894</v>
       </c>
       <c r="F433" s="3" t="s">
-        <v>4698</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.3">
@@ -24976,7 +24976,7 @@
         <v>1223</v>
       </c>
       <c r="F444" s="3" t="s">
-        <v>5221</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.3">
@@ -25568,7 +25568,7 @@
         <v>3942</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>5234</v>
+        <v>5233</v>
       </c>
       <c r="F479" s="1" t="s">
         <v>3943</v>
@@ -25585,10 +25585,10 @@
         <v>1313</v>
       </c>
       <c r="E480" s="1" t="s">
+        <v>5213</v>
+      </c>
+      <c r="F480" s="3" t="s">
         <v>5214</v>
-      </c>
-      <c r="F480" s="3" t="s">
-        <v>5215</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.3">
@@ -25622,7 +25622,7 @@
         <v>1314</v>
       </c>
       <c r="F482" s="3" t="s">
-        <v>5215</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.3">
@@ -25690,7 +25690,7 @@
         <v>1327</v>
       </c>
       <c r="F486" s="3" t="s">
-        <v>5216</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.3">
@@ -25707,7 +25707,7 @@
         <v>1330</v>
       </c>
       <c r="F487" s="3" t="s">
-        <v>5217</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.3">
@@ -25775,7 +25775,7 @@
         <v>1327</v>
       </c>
       <c r="F491" s="3" t="s">
-        <v>5216</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.3">
@@ -25792,7 +25792,7 @@
         <v>1330</v>
       </c>
       <c r="F492" s="3" t="s">
-        <v>5217</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.3">
@@ -25854,13 +25854,13 @@
         <v>1197</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>5218</v>
+        <v>5217</v>
       </c>
       <c r="E496" s="1" t="s">
         <v>614</v>
       </c>
       <c r="F496" s="3" t="s">
-        <v>5216</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.3">
@@ -25877,7 +25877,7 @@
         <v>623</v>
       </c>
       <c r="F497" s="3" t="s">
-        <v>5217</v>
+        <v>5216</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.3">
@@ -26047,7 +26047,7 @@
         <v>1373</v>
       </c>
       <c r="F507" s="3" t="s">
-        <v>5219</v>
+        <v>5218</v>
       </c>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.3">
@@ -26064,7 +26064,7 @@
         <v>1376</v>
       </c>
       <c r="F508" s="3" t="s">
-        <v>5220</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.3">
@@ -26231,10 +26231,10 @@
         <v>1389</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>5224</v>
+        <v>5223</v>
       </c>
       <c r="F518" s="3" t="s">
-        <v>5222</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.3">
@@ -27849,7 +27849,7 @@
         <v>1663</v>
       </c>
       <c r="F613" s="3" t="s">
-        <v>5230</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="614" spans="1:6" x14ac:dyDescent="0.3">
@@ -27860,10 +27860,10 @@
         <v>1665</v>
       </c>
       <c r="C614" s="1" t="s">
-        <v>5228</v>
+        <v>5227</v>
       </c>
       <c r="E614" s="1" t="s">
-        <v>5223</v>
+        <v>5222</v>
       </c>
       <c r="F614" s="1" t="s">
         <v>4069</v>
@@ -27877,7 +27877,7 @@
         <v>1665</v>
       </c>
       <c r="C615" s="1" t="s">
-        <v>5229</v>
+        <v>5228</v>
       </c>
       <c r="E615" s="1" t="s">
         <v>4068</v>
@@ -27894,10 +27894,10 @@
         <v>1665</v>
       </c>
       <c r="C616" s="1" t="s">
-        <v>5227</v>
+        <v>5226</v>
       </c>
       <c r="E616" s="1" t="s">
-        <v>5225</v>
+        <v>5224</v>
       </c>
       <c r="F616" s="1" t="s">
         <v>4071</v>
@@ -27911,7 +27911,7 @@
         <v>1665</v>
       </c>
       <c r="C617" s="1" t="s">
-        <v>5226</v>
+        <v>5225</v>
       </c>
       <c r="E617" s="1" t="s">
         <v>1669</v>
@@ -27925,7 +27925,7 @@
         <v>1670</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>5232</v>
+        <v>5231</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>1671</v>
@@ -28087,7 +28087,7 @@
         <v>1695</v>
       </c>
       <c r="F627" s="3" t="s">
-        <v>5233</v>
+        <v>5232</v>
       </c>
     </row>
     <row r="628" spans="1:6" x14ac:dyDescent="0.3">
@@ -28223,7 +28223,7 @@
         <v>1713</v>
       </c>
       <c r="F635" s="3" t="s">
-        <v>5238</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="636" spans="1:6" x14ac:dyDescent="0.3">
@@ -28262,7 +28262,7 @@
     </row>
     <row r="638" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
-        <v>4937</v>
+        <v>4936</v>
       </c>
       <c r="B638" s="1" t="s">
         <v>1197</v>
@@ -28330,7 +28330,7 @@
     </row>
     <row r="642" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
-        <v>5240</v>
+        <v>5239</v>
       </c>
       <c r="B642" s="1" t="s">
         <v>1197</v>
@@ -28438,7 +28438,7 @@
         <v>1197</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>5172</v>
+        <v>5171</v>
       </c>
       <c r="E648" s="1" t="s">
         <v>4108</v>
@@ -28512,18 +28512,18 @@
         <v>1747</v>
       </c>
       <c r="F652" s="3" t="s">
-        <v>5231</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="653" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
-        <v>4936</v>
+        <v>4935</v>
       </c>
       <c r="B653" s="1" t="s">
         <v>1197</v>
       </c>
       <c r="C653" s="3" t="s">
-        <v>4935</v>
+        <v>4934</v>
       </c>
       <c r="E653" s="3" t="s">
         <v>1748</v>
@@ -28563,7 +28563,7 @@
         <v>1747</v>
       </c>
       <c r="F655" s="3" t="s">
-        <v>5231</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="656" spans="1:6" x14ac:dyDescent="0.3">
@@ -28574,7 +28574,7 @@
         <v>1197</v>
       </c>
       <c r="C656" s="3" t="s">
-        <v>4934</v>
+        <v>4933</v>
       </c>
       <c r="E656" s="3" t="s">
         <v>1755</v>
@@ -30501,18 +30501,18 @@
         <v>4196</v>
       </c>
       <c r="F769" s="1" t="s">
-        <v>5170</v>
+        <v>5169</v>
       </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A770" s="1" t="s">
-        <v>5168</v>
+        <v>5167</v>
       </c>
       <c r="B770" s="1" t="s">
         <v>1197</v>
       </c>
       <c r="C770" s="1" t="s">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="E770" s="1" t="s">
         <v>2029</v>
@@ -30523,7 +30523,7 @@
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A771" s="1" t="s">
-        <v>5167</v>
+        <v>5166</v>
       </c>
       <c r="B771" s="1" t="s">
         <v>1197</v>
@@ -30688,7 +30688,7 @@
         <v>4203</v>
       </c>
       <c r="F780" s="3" t="s">
-        <v>5169</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.3">
@@ -30957,7 +30957,7 @@
         <v>4224</v>
       </c>
       <c r="E796" s="1" t="s">
-        <v>5239</v>
+        <v>5238</v>
       </c>
       <c r="F796" s="1" t="s">
         <v>4225</v>
@@ -33218,10 +33218,10 @@
         <v>4255</v>
       </c>
       <c r="E929" s="1" t="s">
+        <v>4962</v>
+      </c>
+      <c r="F929" s="4" t="s">
         <v>4963</v>
-      </c>
-      <c r="F929" s="4" t="s">
-        <v>4964</v>
       </c>
     </row>
     <row r="930" spans="1:6" x14ac:dyDescent="0.3">
@@ -33235,10 +33235,10 @@
         <v>2163</v>
       </c>
       <c r="E930" s="1" t="s">
-        <v>4699</v>
+        <v>4698</v>
       </c>
       <c r="F930" s="4" t="s">
-        <v>4965</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="931" spans="1:6" x14ac:dyDescent="0.3">
@@ -33252,10 +33252,10 @@
         <v>2165</v>
       </c>
       <c r="E931" s="1" t="s">
+        <v>4965</v>
+      </c>
+      <c r="F931" s="4" t="s">
         <v>4966</v>
-      </c>
-      <c r="F931" s="4" t="s">
-        <v>4967</v>
       </c>
     </row>
     <row r="932" spans="1:6" x14ac:dyDescent="0.3">
@@ -33269,10 +33269,10 @@
         <v>2167</v>
       </c>
       <c r="E932" s="1" t="s">
+        <v>4967</v>
+      </c>
+      <c r="F932" s="4" t="s">
         <v>4968</v>
-      </c>
-      <c r="F932" s="4" t="s">
-        <v>4969</v>
       </c>
     </row>
     <row r="933" spans="1:6" x14ac:dyDescent="0.3">
@@ -33286,10 +33286,10 @@
         <v>2169</v>
       </c>
       <c r="E933" s="1" t="s">
+        <v>4969</v>
+      </c>
+      <c r="F933" s="4" t="s">
         <v>4970</v>
-      </c>
-      <c r="F933" s="4" t="s">
-        <v>4971</v>
       </c>
     </row>
     <row r="934" spans="1:6" x14ac:dyDescent="0.3">
@@ -33303,10 +33303,10 @@
         <v>2171</v>
       </c>
       <c r="E934" s="1" t="s">
-        <v>5042</v>
+        <v>5041</v>
       </c>
       <c r="F934" s="4" t="s">
-        <v>4972</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="935" spans="1:6" x14ac:dyDescent="0.3">
@@ -33320,10 +33320,10 @@
         <v>2173</v>
       </c>
       <c r="E935" s="1" t="s">
-        <v>5041</v>
+        <v>5040</v>
       </c>
       <c r="F935" s="4" t="s">
-        <v>4973</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="936" spans="1:6" x14ac:dyDescent="0.3">
@@ -33337,10 +33337,10 @@
         <v>2175</v>
       </c>
       <c r="E936" s="1" t="s">
+        <v>4973</v>
+      </c>
+      <c r="F936" s="4" t="s">
         <v>4974</v>
-      </c>
-      <c r="F936" s="4" t="s">
-        <v>4975</v>
       </c>
     </row>
     <row r="937" spans="1:6" x14ac:dyDescent="0.3">
@@ -33354,10 +33354,10 @@
         <v>2177</v>
       </c>
       <c r="E937" s="1" t="s">
-        <v>5040</v>
+        <v>5039</v>
       </c>
       <c r="F937" s="4" t="s">
-        <v>4976</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="938" spans="1:6" x14ac:dyDescent="0.3">
@@ -33371,10 +33371,10 @@
         <v>2179</v>
       </c>
       <c r="E938" s="1" t="s">
-        <v>5037</v>
+        <v>5036</v>
       </c>
       <c r="F938" s="4" t="s">
-        <v>4977</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="939" spans="1:6" x14ac:dyDescent="0.3">
@@ -33388,10 +33388,10 @@
         <v>2181</v>
       </c>
       <c r="E939" s="1" t="s">
+        <v>5037</v>
+      </c>
+      <c r="F939" s="4" t="s">
         <v>5038</v>
-      </c>
-      <c r="F939" s="4" t="s">
-        <v>5039</v>
       </c>
     </row>
     <row r="940" spans="1:6" x14ac:dyDescent="0.3">
@@ -33405,10 +33405,10 @@
         <v>2183</v>
       </c>
       <c r="E940" s="1" t="s">
-        <v>5036</v>
+        <v>5035</v>
       </c>
       <c r="F940" s="4" t="s">
-        <v>4978</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="941" spans="1:6" x14ac:dyDescent="0.3">
@@ -33422,10 +33422,10 @@
         <v>2185</v>
       </c>
       <c r="E941" s="1" t="s">
-        <v>5035</v>
+        <v>5034</v>
       </c>
       <c r="F941" s="4" t="s">
-        <v>4979</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="942" spans="1:6" x14ac:dyDescent="0.3">
@@ -33439,10 +33439,10 @@
         <v>2187</v>
       </c>
       <c r="E942" s="1" t="s">
-        <v>4980</v>
+        <v>4979</v>
       </c>
       <c r="F942" s="4" t="s">
-        <v>4982</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="943" spans="1:6" x14ac:dyDescent="0.3">
@@ -33456,10 +33456,10 @@
         <v>2189</v>
       </c>
       <c r="E943" s="1" t="s">
+        <v>5032</v>
+      </c>
+      <c r="F943" s="4" t="s">
         <v>5033</v>
-      </c>
-      <c r="F943" s="4" t="s">
-        <v>5034</v>
       </c>
     </row>
     <row r="944" spans="1:6" x14ac:dyDescent="0.3">
@@ -33473,10 +33473,10 @@
         <v>2191</v>
       </c>
       <c r="E944" s="1" t="s">
-        <v>4981</v>
+        <v>4980</v>
       </c>
       <c r="F944" s="4" t="s">
-        <v>5032</v>
+        <v>5031</v>
       </c>
     </row>
     <row r="945" spans="1:6" x14ac:dyDescent="0.3">
@@ -33490,10 +33490,10 @@
         <v>2193</v>
       </c>
       <c r="E945" s="1" t="s">
-        <v>4989</v>
+        <v>4988</v>
       </c>
       <c r="F945" s="4" t="s">
-        <v>5029</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="946" spans="1:6" x14ac:dyDescent="0.3">
@@ -33507,10 +33507,10 @@
         <v>2195</v>
       </c>
       <c r="E946" s="1" t="s">
+        <v>4982</v>
+      </c>
+      <c r="F946" s="4" t="s">
         <v>4983</v>
-      </c>
-      <c r="F946" s="4" t="s">
-        <v>4984</v>
       </c>
     </row>
     <row r="947" spans="1:6" x14ac:dyDescent="0.3">
@@ -33524,10 +33524,10 @@
         <v>2197</v>
       </c>
       <c r="E947" s="1" t="s">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="F947" s="4" t="s">
-        <v>4985</v>
+        <v>4984</v>
       </c>
     </row>
     <row r="948" spans="1:6" x14ac:dyDescent="0.3">
@@ -33541,10 +33541,10 @@
         <v>2199</v>
       </c>
       <c r="E948" s="1" t="s">
-        <v>4990</v>
+        <v>4989</v>
       </c>
       <c r="F948" s="4" t="s">
-        <v>4986</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="949" spans="1:6" x14ac:dyDescent="0.3">
@@ -33558,10 +33558,10 @@
         <v>2201</v>
       </c>
       <c r="E949" s="1" t="s">
-        <v>5031</v>
+        <v>5030</v>
       </c>
       <c r="F949" s="4" t="s">
-        <v>4987</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="950" spans="1:6" x14ac:dyDescent="0.3">
@@ -33575,10 +33575,10 @@
         <v>2203</v>
       </c>
       <c r="E950" s="1" t="s">
+        <v>5026</v>
+      </c>
+      <c r="F950" s="4" t="s">
         <v>5027</v>
-      </c>
-      <c r="F950" s="4" t="s">
-        <v>5028</v>
       </c>
     </row>
     <row r="951" spans="1:6" x14ac:dyDescent="0.3">
@@ -33592,10 +33592,10 @@
         <v>2205</v>
       </c>
       <c r="E951" s="1" t="s">
-        <v>4988</v>
+        <v>4987</v>
       </c>
       <c r="F951" s="4" t="s">
-        <v>5026</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="952" spans="1:6" x14ac:dyDescent="0.3">
@@ -33609,10 +33609,10 @@
         <v>2207</v>
       </c>
       <c r="E952" s="1" t="s">
+        <v>4990</v>
+      </c>
+      <c r="F952" s="4" t="s">
         <v>4991</v>
-      </c>
-      <c r="F952" s="4" t="s">
-        <v>4992</v>
       </c>
     </row>
     <row r="953" spans="1:6" x14ac:dyDescent="0.3">
@@ -33626,10 +33626,10 @@
         <v>2209</v>
       </c>
       <c r="E953" s="1" t="s">
-        <v>5025</v>
+        <v>5024</v>
       </c>
       <c r="F953" s="4" t="s">
-        <v>4993</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="954" spans="1:6" x14ac:dyDescent="0.3">
@@ -33646,7 +33646,7 @@
         <v>2212</v>
       </c>
       <c r="F954" s="4" t="s">
-        <v>4994</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="955" spans="1:6" x14ac:dyDescent="0.3">
@@ -33660,10 +33660,10 @@
         <v>2214</v>
       </c>
       <c r="E955" s="1" t="s">
-        <v>5024</v>
+        <v>5023</v>
       </c>
       <c r="F955" s="4" t="s">
-        <v>4995</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.3">
@@ -33677,10 +33677,10 @@
         <v>2216</v>
       </c>
       <c r="E956" s="1" t="s">
+        <v>4995</v>
+      </c>
+      <c r="F956" s="4" t="s">
         <v>4996</v>
-      </c>
-      <c r="F956" s="4" t="s">
-        <v>4997</v>
       </c>
     </row>
     <row r="957" spans="1:6" x14ac:dyDescent="0.3">
@@ -33694,10 +33694,10 @@
         <v>2218</v>
       </c>
       <c r="E957" s="1" t="s">
-        <v>5023</v>
+        <v>5022</v>
       </c>
       <c r="F957" s="4" t="s">
-        <v>4998</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="958" spans="1:6" x14ac:dyDescent="0.3">
@@ -33711,10 +33711,10 @@
         <v>2220</v>
       </c>
       <c r="E958" s="1" t="s">
-        <v>5000</v>
+        <v>4999</v>
       </c>
       <c r="F958" s="4" t="s">
-        <v>4999</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="959" spans="1:6" x14ac:dyDescent="0.3">
@@ -33728,10 +33728,10 @@
         <v>2222</v>
       </c>
       <c r="E959" s="1" t="s">
-        <v>5001</v>
+        <v>5000</v>
       </c>
       <c r="F959" s="4" t="s">
-        <v>5022</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="960" spans="1:6" x14ac:dyDescent="0.3">
@@ -33745,10 +33745,10 @@
         <v>2224</v>
       </c>
       <c r="E960" s="1" t="s">
+        <v>5002</v>
+      </c>
+      <c r="F960" s="4" t="s">
         <v>5003</v>
-      </c>
-      <c r="F960" s="4" t="s">
-        <v>5004</v>
       </c>
     </row>
     <row r="961" spans="1:6" x14ac:dyDescent="0.3">
@@ -33762,10 +33762,10 @@
         <v>2226</v>
       </c>
       <c r="E961" s="1" t="s">
-        <v>5002</v>
+        <v>5001</v>
       </c>
       <c r="F961" s="4" t="s">
-        <v>5006</v>
+        <v>5005</v>
       </c>
     </row>
     <row r="962" spans="1:6" x14ac:dyDescent="0.3">
@@ -33779,10 +33779,10 @@
         <v>2228</v>
       </c>
       <c r="E962" s="1" t="s">
-        <v>5005</v>
+        <v>5004</v>
       </c>
       <c r="F962" s="4" t="s">
-        <v>5007</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="963" spans="1:6" x14ac:dyDescent="0.3">
@@ -33796,10 +33796,10 @@
         <v>2230</v>
       </c>
       <c r="E963" s="1" t="s">
-        <v>5021</v>
+        <v>5020</v>
       </c>
       <c r="F963" s="4" t="s">
-        <v>5008</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="964" spans="1:6" x14ac:dyDescent="0.3">
@@ -33813,10 +33813,10 @@
         <v>2232</v>
       </c>
       <c r="E964" s="1" t="s">
-        <v>5009</v>
+        <v>5008</v>
       </c>
       <c r="F964" s="4" t="s">
-        <v>5020</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="965" spans="1:6" x14ac:dyDescent="0.3">
@@ -33830,10 +33830,10 @@
         <v>2234</v>
       </c>
       <c r="E965" s="1" t="s">
-        <v>5016</v>
+        <v>5015</v>
       </c>
       <c r="F965" s="4" t="s">
-        <v>5010</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="966" spans="1:6" x14ac:dyDescent="0.3">
@@ -33847,10 +33847,10 @@
         <v>2236</v>
       </c>
       <c r="E966" s="1" t="s">
+        <v>5017</v>
+      </c>
+      <c r="F966" s="4" t="s">
         <v>5018</v>
-      </c>
-      <c r="F966" s="4" t="s">
-        <v>5019</v>
       </c>
     </row>
     <row r="967" spans="1:6" x14ac:dyDescent="0.3">
@@ -33864,10 +33864,10 @@
         <v>2238</v>
       </c>
       <c r="E967" s="1" t="s">
-        <v>5011</v>
+        <v>5010</v>
       </c>
       <c r="F967" s="4" t="s">
-        <v>5017</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="968" spans="1:6" x14ac:dyDescent="0.3">
@@ -33881,10 +33881,10 @@
         <v>2240</v>
       </c>
       <c r="E968" s="1" t="s">
-        <v>5015</v>
+        <v>5014</v>
       </c>
       <c r="F968" s="4" t="s">
-        <v>5012</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="969" spans="1:6" x14ac:dyDescent="0.3">
@@ -33898,10 +33898,10 @@
         <v>2242</v>
       </c>
       <c r="E969" s="1" t="s">
+        <v>5012</v>
+      </c>
+      <c r="F969" s="4" t="s">
         <v>5013</v>
-      </c>
-      <c r="F969" s="4" t="s">
-        <v>5014</v>
       </c>
     </row>
     <row r="970" spans="1:6" x14ac:dyDescent="0.3">
@@ -33915,10 +33915,10 @@
         <v>2244</v>
       </c>
       <c r="E970" s="1" t="s">
-        <v>5043</v>
+        <v>5042</v>
       </c>
       <c r="F970" s="4" t="s">
-        <v>5080</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="971" spans="1:6" x14ac:dyDescent="0.3">
@@ -33935,7 +33935,7 @@
         <v>2247</v>
       </c>
       <c r="F971" s="4" t="s">
-        <v>5044</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="972" spans="1:6" x14ac:dyDescent="0.3">
@@ -33952,7 +33952,7 @@
         <v>2250</v>
       </c>
       <c r="F972" s="4" t="s">
-        <v>5045</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="973" spans="1:6" x14ac:dyDescent="0.3">
@@ -33969,7 +33969,7 @@
         <v>2253</v>
       </c>
       <c r="F973" s="4" t="s">
-        <v>5046</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="974" spans="1:6" x14ac:dyDescent="0.3">
@@ -33986,7 +33986,7 @@
         <v>2256</v>
       </c>
       <c r="F974" s="4" t="s">
-        <v>5048</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="975" spans="1:6" x14ac:dyDescent="0.3">
@@ -34003,7 +34003,7 @@
         <v>2259</v>
       </c>
       <c r="F975" s="4" t="s">
-        <v>5049</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="976" spans="1:6" x14ac:dyDescent="0.3">
@@ -34017,10 +34017,10 @@
         <v>2261</v>
       </c>
       <c r="E976" s="1" t="s">
-        <v>5047</v>
+        <v>5046</v>
       </c>
       <c r="F976" s="4" t="s">
-        <v>5050</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="977" spans="1:6" x14ac:dyDescent="0.3">
@@ -34037,7 +34037,7 @@
         <v>2264</v>
       </c>
       <c r="F977" s="4" t="s">
-        <v>5051</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="978" spans="1:6" x14ac:dyDescent="0.3">
@@ -34054,7 +34054,7 @@
         <v>2267</v>
       </c>
       <c r="F978" s="4" t="s">
-        <v>5052</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="979" spans="1:6" x14ac:dyDescent="0.3">
@@ -34068,10 +34068,10 @@
         <v>2269</v>
       </c>
       <c r="E979" s="1" t="s">
+        <v>5052</v>
+      </c>
+      <c r="F979" s="4" t="s">
         <v>5053</v>
-      </c>
-      <c r="F979" s="4" t="s">
-        <v>5054</v>
       </c>
     </row>
     <row r="980" spans="1:6" x14ac:dyDescent="0.3">
@@ -34088,7 +34088,7 @@
         <v>2272</v>
       </c>
       <c r="F980" s="4" t="s">
-        <v>5055</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="981" spans="1:6" x14ac:dyDescent="0.3">
@@ -34105,7 +34105,7 @@
         <v>2275</v>
       </c>
       <c r="F981" s="4" t="s">
-        <v>5056</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="982" spans="1:6" x14ac:dyDescent="0.3">
@@ -34122,7 +34122,7 @@
         <v>2278</v>
       </c>
       <c r="F982" s="4" t="s">
-        <v>5058</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="983" spans="1:6" x14ac:dyDescent="0.3">
@@ -34136,10 +34136,10 @@
         <v>2280</v>
       </c>
       <c r="E983" s="1" t="s">
-        <v>5057</v>
+        <v>5056</v>
       </c>
       <c r="F983" s="4" t="s">
-        <v>5059</v>
+        <v>5058</v>
       </c>
     </row>
     <row r="984" spans="1:6" x14ac:dyDescent="0.3">
@@ -34156,7 +34156,7 @@
         <v>2283</v>
       </c>
       <c r="F984" s="4" t="s">
-        <v>5060</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="985" spans="1:6" x14ac:dyDescent="0.3">
@@ -34173,7 +34173,7 @@
         <v>2286</v>
       </c>
       <c r="F985" s="4" t="s">
-        <v>5061</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.3">
@@ -34190,7 +34190,7 @@
         <v>2289</v>
       </c>
       <c r="F986" s="4" t="s">
-        <v>5062</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.3">
@@ -34207,7 +34207,7 @@
         <v>2292</v>
       </c>
       <c r="F987" s="4" t="s">
-        <v>5063</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.3">
@@ -34224,7 +34224,7 @@
         <v>2295</v>
       </c>
       <c r="F988" s="4" t="s">
-        <v>5064</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="989" spans="1:6" x14ac:dyDescent="0.3">
@@ -34241,7 +34241,7 @@
         <v>2298</v>
       </c>
       <c r="F989" s="4" t="s">
-        <v>5065</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.3">
@@ -34258,7 +34258,7 @@
         <v>2301</v>
       </c>
       <c r="F990" s="4" t="s">
-        <v>5066</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.3">
@@ -34272,10 +34272,10 @@
         <v>2303</v>
       </c>
       <c r="E991" s="1" t="s">
+        <v>5066</v>
+      </c>
+      <c r="F991" s="4" t="s">
         <v>5067</v>
-      </c>
-      <c r="F991" s="4" t="s">
-        <v>5068</v>
       </c>
     </row>
     <row r="992" spans="1:6" x14ac:dyDescent="0.3">
@@ -34292,7 +34292,7 @@
         <v>2306</v>
       </c>
       <c r="F992" s="4" t="s">
-        <v>5070</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="0.3">
@@ -34306,10 +34306,10 @@
         <v>2308</v>
       </c>
       <c r="E993" s="1" t="s">
-        <v>5069</v>
+        <v>5068</v>
       </c>
       <c r="F993" s="4" t="s">
-        <v>5071</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.3">
@@ -34326,7 +34326,7 @@
         <v>2311</v>
       </c>
       <c r="F994" s="4" t="s">
-        <v>5072</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.3">
@@ -34343,7 +34343,7 @@
         <v>2314</v>
       </c>
       <c r="F995" s="4" t="s">
-        <v>5073</v>
+        <v>5072</v>
       </c>
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.3">
@@ -34360,7 +34360,7 @@
         <v>2317</v>
       </c>
       <c r="F996" s="4" t="s">
-        <v>5074</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="997" spans="1:6" x14ac:dyDescent="0.3">
@@ -34377,7 +34377,7 @@
         <v>2320</v>
       </c>
       <c r="F997" s="4" t="s">
-        <v>5075</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.3">
@@ -34394,7 +34394,7 @@
         <v>2323</v>
       </c>
       <c r="F998" s="4" t="s">
-        <v>5076</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.3">
@@ -34411,7 +34411,7 @@
         <v>2326</v>
       </c>
       <c r="F999" s="4" t="s">
-        <v>5077</v>
+        <v>5076</v>
       </c>
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.3">
@@ -34428,7 +34428,7 @@
         <v>2329</v>
       </c>
       <c r="F1000" s="1" t="s">
-        <v>4700</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.3">
@@ -34445,7 +34445,7 @@
         <v>2332</v>
       </c>
       <c r="F1001" s="1" t="s">
-        <v>4701</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.3">
@@ -34462,7 +34462,7 @@
         <v>2335</v>
       </c>
       <c r="F1002" s="1" t="s">
-        <v>4702</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="0.3">
@@ -34479,7 +34479,7 @@
         <v>2338</v>
       </c>
       <c r="F1003" s="1" t="s">
-        <v>4703</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="1004" spans="1:6" x14ac:dyDescent="0.3">
@@ -34496,7 +34496,7 @@
         <v>2341</v>
       </c>
       <c r="F1004" s="1" t="s">
-        <v>4704</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="1005" spans="1:6" x14ac:dyDescent="0.3">
@@ -34513,7 +34513,7 @@
         <v>2344</v>
       </c>
       <c r="F1005" s="1" t="s">
-        <v>4705</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="1006" spans="1:6" x14ac:dyDescent="0.3">
@@ -34530,7 +34530,7 @@
         <v>2347</v>
       </c>
       <c r="F1006" s="1" t="s">
-        <v>4706</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="1007" spans="1:6" x14ac:dyDescent="0.3">
@@ -34544,10 +34544,10 @@
         <v>2349</v>
       </c>
       <c r="E1007" s="1" t="s">
-        <v>5156</v>
+        <v>5155</v>
       </c>
       <c r="F1007" s="1" t="s">
-        <v>4707</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="1008" spans="1:6" x14ac:dyDescent="0.3">
@@ -34561,10 +34561,10 @@
         <v>2352</v>
       </c>
       <c r="E1008" s="1" t="s">
-        <v>4947</v>
+        <v>4946</v>
       </c>
       <c r="F1008" s="1" t="s">
-        <v>4708</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="1009" spans="1:6" x14ac:dyDescent="0.3">
@@ -34581,7 +34581,7 @@
         <v>2356</v>
       </c>
       <c r="F1009" s="1" t="s">
-        <v>4709</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="1010" spans="1:6" x14ac:dyDescent="0.3">
@@ -34598,7 +34598,7 @@
         <v>2359</v>
       </c>
       <c r="F1010" s="1" t="s">
-        <v>4710</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="1011" spans="1:6" x14ac:dyDescent="0.3">
@@ -34615,7 +34615,7 @@
         <v>2362</v>
       </c>
       <c r="F1011" s="1" t="s">
-        <v>4711</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="1012" spans="1:6" x14ac:dyDescent="0.3">
@@ -34629,10 +34629,10 @@
         <v>2364</v>
       </c>
       <c r="E1012" s="1" t="s">
-        <v>4723</v>
+        <v>4722</v>
       </c>
       <c r="F1012" s="1" t="s">
-        <v>4712</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="1013" spans="1:6" x14ac:dyDescent="0.3">
@@ -34649,7 +34649,7 @@
         <v>2367</v>
       </c>
       <c r="F1013" s="1" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="1014" spans="1:6" x14ac:dyDescent="0.3">
@@ -34666,7 +34666,7 @@
         <v>2370</v>
       </c>
       <c r="F1014" s="1" t="s">
-        <v>4714</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="1015" spans="1:6" x14ac:dyDescent="0.3">
@@ -34683,7 +34683,7 @@
         <v>2373</v>
       </c>
       <c r="F1015" s="1" t="s">
-        <v>5157</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="1016" spans="1:6" x14ac:dyDescent="0.3">
@@ -34700,7 +34700,7 @@
         <v>2376</v>
       </c>
       <c r="F1016" s="1" t="s">
-        <v>4715</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="1017" spans="1:6" x14ac:dyDescent="0.3">
@@ -34717,7 +34717,7 @@
         <v>2379</v>
       </c>
       <c r="F1017" s="1" t="s">
-        <v>4716</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="1018" spans="1:6" x14ac:dyDescent="0.3">
@@ -34734,7 +34734,7 @@
         <v>2382</v>
       </c>
       <c r="F1018" s="1" t="s">
-        <v>4717</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="1019" spans="1:6" x14ac:dyDescent="0.3">
@@ -34751,7 +34751,7 @@
         <v>2385</v>
       </c>
       <c r="F1019" s="1" t="s">
-        <v>4718</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="1020" spans="1:6" x14ac:dyDescent="0.3">
@@ -34768,7 +34768,7 @@
         <v>2388</v>
       </c>
       <c r="F1020" s="1" t="s">
-        <v>4719</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="1021" spans="1:6" x14ac:dyDescent="0.3">
@@ -34785,7 +34785,7 @@
         <v>2391</v>
       </c>
       <c r="F1021" s="1" t="s">
-        <v>4720</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="1022" spans="1:6" x14ac:dyDescent="0.3">
@@ -34802,7 +34802,7 @@
         <v>2394</v>
       </c>
       <c r="F1022" s="1" t="s">
-        <v>4721</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="1023" spans="1:6" x14ac:dyDescent="0.3">
@@ -34819,7 +34819,7 @@
         <v>2397</v>
       </c>
       <c r="F1023" s="1" t="s">
-        <v>4722</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="1024" spans="1:6" x14ac:dyDescent="0.3">
@@ -34833,10 +34833,10 @@
         <v>2399</v>
       </c>
       <c r="E1024" s="1" t="s">
+        <v>4723</v>
+      </c>
+      <c r="F1024" s="1" t="s">
         <v>4724</v>
-      </c>
-      <c r="F1024" s="1" t="s">
-        <v>4725</v>
       </c>
     </row>
     <row r="1025" spans="1:6" x14ac:dyDescent="0.3">
@@ -34853,7 +34853,7 @@
         <v>2403</v>
       </c>
       <c r="F1025" s="1" t="s">
-        <v>4726</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="1026" spans="1:6" x14ac:dyDescent="0.3">
@@ -34870,7 +34870,7 @@
         <v>2406</v>
       </c>
       <c r="F1026" s="1" t="s">
-        <v>4727</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="1027" spans="1:6" x14ac:dyDescent="0.3">
@@ -34884,10 +34884,10 @@
         <v>2408</v>
       </c>
       <c r="E1027" s="1" t="s">
-        <v>4950</v>
+        <v>4949</v>
       </c>
       <c r="F1027" s="1" t="s">
-        <v>4728</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="1028" spans="1:6" x14ac:dyDescent="0.3">
@@ -34904,7 +34904,7 @@
         <v>2411</v>
       </c>
       <c r="F1028" s="1" t="s">
-        <v>4729</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="1029" spans="1:6" x14ac:dyDescent="0.3">
@@ -34921,7 +34921,7 @@
         <v>2414</v>
       </c>
       <c r="F1029" s="1" t="s">
-        <v>4730</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="1030" spans="1:6" x14ac:dyDescent="0.3">
@@ -34938,7 +34938,7 @@
         <v>2417</v>
       </c>
       <c r="F1030" s="1" t="s">
-        <v>4731</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="1031" spans="1:6" x14ac:dyDescent="0.3">
@@ -34955,7 +34955,7 @@
         <v>2420</v>
       </c>
       <c r="F1031" s="1" t="s">
-        <v>5158</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="1032" spans="1:6" x14ac:dyDescent="0.3">
@@ -34972,7 +34972,7 @@
         <v>2423</v>
       </c>
       <c r="F1032" s="1" t="s">
-        <v>4732</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="1033" spans="1:6" x14ac:dyDescent="0.3">
@@ -34989,7 +34989,7 @@
         <v>2426</v>
       </c>
       <c r="F1033" s="1" t="s">
-        <v>4733</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="1034" spans="1:6" x14ac:dyDescent="0.3">
@@ -35006,7 +35006,7 @@
         <v>2429</v>
       </c>
       <c r="F1034" s="1" t="s">
-        <v>4734</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="1035" spans="1:6" x14ac:dyDescent="0.3">
@@ -35023,7 +35023,7 @@
         <v>2432</v>
       </c>
       <c r="F1035" s="1" t="s">
-        <v>4735</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="1036" spans="1:6" x14ac:dyDescent="0.3">
@@ -35040,7 +35040,7 @@
         <v>2435</v>
       </c>
       <c r="F1036" s="1" t="s">
-        <v>4736</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="1037" spans="1:6" x14ac:dyDescent="0.3">
@@ -35054,10 +35054,10 @@
         <v>2437</v>
       </c>
       <c r="E1037" s="1" t="s">
-        <v>4949</v>
+        <v>4948</v>
       </c>
       <c r="F1037" s="1" t="s">
-        <v>5159</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="1038" spans="1:6" x14ac:dyDescent="0.3">
@@ -35071,10 +35071,10 @@
         <v>2440</v>
       </c>
       <c r="E1038" s="1" t="s">
-        <v>4737</v>
+        <v>4736</v>
       </c>
       <c r="F1038" s="1" t="s">
-        <v>5160</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="1039" spans="1:6" x14ac:dyDescent="0.3">
@@ -35088,10 +35088,10 @@
         <v>2443</v>
       </c>
       <c r="E1039" s="1" t="s">
-        <v>4739</v>
+        <v>4738</v>
       </c>
       <c r="F1039" s="1" t="s">
-        <v>4738</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="1040" spans="1:6" x14ac:dyDescent="0.3">
@@ -35105,10 +35105,10 @@
         <v>2446</v>
       </c>
       <c r="E1040" s="1" t="s">
-        <v>4741</v>
+        <v>4740</v>
       </c>
       <c r="F1040" s="1" t="s">
-        <v>4760</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="1041" spans="1:6" x14ac:dyDescent="0.3">
@@ -35125,7 +35125,7 @@
         <v>2450</v>
       </c>
       <c r="F1041" s="1" t="s">
-        <v>4742</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="1042" spans="1:6" x14ac:dyDescent="0.3">
@@ -35139,10 +35139,10 @@
         <v>2452</v>
       </c>
       <c r="E1042" s="1" t="s">
-        <v>4948</v>
+        <v>4947</v>
       </c>
       <c r="F1042" s="1" t="s">
-        <v>4740</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="1043" spans="1:6" x14ac:dyDescent="0.3">
@@ -35159,7 +35159,7 @@
         <v>2456</v>
       </c>
       <c r="F1043" s="1" t="s">
-        <v>4743</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="1044" spans="1:6" x14ac:dyDescent="0.3">
@@ -35173,10 +35173,10 @@
         <v>2458</v>
       </c>
       <c r="E1044" s="1" t="s">
-        <v>4746</v>
+        <v>4745</v>
       </c>
       <c r="F1044" s="1" t="s">
-        <v>5161</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="1045" spans="1:6" x14ac:dyDescent="0.3">
@@ -35193,7 +35193,7 @@
         <v>2462</v>
       </c>
       <c r="F1045" s="1" t="s">
-        <v>4744</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="1046" spans="1:6" x14ac:dyDescent="0.3">
@@ -35210,7 +35210,7 @@
         <v>2465</v>
       </c>
       <c r="F1046" s="1" t="s">
-        <v>4745</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="1047" spans="1:6" x14ac:dyDescent="0.3">
@@ -35227,7 +35227,7 @@
         <v>2468</v>
       </c>
       <c r="F1047" s="1" t="s">
-        <v>5162</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="1048" spans="1:6" x14ac:dyDescent="0.3">
@@ -35244,7 +35244,7 @@
         <v>2471</v>
       </c>
       <c r="F1048" s="1" t="s">
-        <v>5155</v>
+        <v>5154</v>
       </c>
     </row>
     <row r="1049" spans="1:6" x14ac:dyDescent="0.3">
@@ -35261,7 +35261,7 @@
         <v>2474</v>
       </c>
       <c r="F1049" s="1" t="s">
-        <v>4747</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="1050" spans="1:6" x14ac:dyDescent="0.3">
@@ -35275,10 +35275,10 @@
         <v>2476</v>
       </c>
       <c r="E1050" s="1" t="s">
-        <v>4753</v>
+        <v>4752</v>
       </c>
       <c r="F1050" s="1" t="s">
-        <v>4748</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="1051" spans="1:6" x14ac:dyDescent="0.3">
@@ -35295,7 +35295,7 @@
         <v>2479</v>
       </c>
       <c r="F1051" s="1" t="s">
-        <v>4749</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="1052" spans="1:6" x14ac:dyDescent="0.3">
@@ -35309,10 +35309,10 @@
         <v>2481</v>
       </c>
       <c r="E1052" s="1" t="s">
-        <v>4755</v>
+        <v>4754</v>
       </c>
       <c r="F1052" s="1" t="s">
-        <v>4750</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="1053" spans="1:6" x14ac:dyDescent="0.3">
@@ -35329,7 +35329,7 @@
         <v>2484</v>
       </c>
       <c r="F1053" s="1" t="s">
-        <v>4751</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="1054" spans="1:6" x14ac:dyDescent="0.3">
@@ -35346,7 +35346,7 @@
         <v>2487</v>
       </c>
       <c r="F1054" s="1" t="s">
-        <v>4752</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="1055" spans="1:6" x14ac:dyDescent="0.3">
@@ -35360,10 +35360,10 @@
         <v>2489</v>
       </c>
       <c r="E1055" s="1" t="s">
-        <v>4759</v>
+        <v>4758</v>
       </c>
       <c r="F1055" s="1" t="s">
-        <v>4754</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="1056" spans="1:6" x14ac:dyDescent="0.3">
@@ -35380,12 +35380,12 @@
         <v>2493</v>
       </c>
       <c r="F1056" s="1" t="s">
-        <v>4758</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1057" s="1" t="s">
-        <v>4761</v>
+        <v>4760</v>
       </c>
       <c r="B1057" s="1" t="s">
         <v>2161</v>
@@ -35397,49 +35397,49 @@
         <v>2495</v>
       </c>
       <c r="F1057" s="1" t="s">
-        <v>4757</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="1058" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1058" s="1" t="s">
-        <v>4762</v>
+        <v>4761</v>
       </c>
       <c r="B1058" s="1" t="s">
         <v>2161</v>
       </c>
       <c r="C1058" s="1" t="s">
-        <v>4765</v>
+        <v>4764</v>
       </c>
       <c r="F1058" s="1" t="s">
-        <v>4768</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="1059" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1059" s="1" t="s">
-        <v>4763</v>
+        <v>4762</v>
       </c>
       <c r="B1059" s="1" t="s">
         <v>2161</v>
       </c>
       <c r="C1059" s="1" t="s">
-        <v>4766</v>
+        <v>4765</v>
       </c>
       <c r="F1059" s="1" t="s">
-        <v>4756</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="1060" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1060" s="1" t="s">
-        <v>4764</v>
+        <v>4763</v>
       </c>
       <c r="B1060" s="1" t="s">
         <v>2161</v>
       </c>
       <c r="C1060" s="1" t="s">
-        <v>4767</v>
+        <v>4766</v>
       </c>
       <c r="F1060" s="1" t="s">
-        <v>4769</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="1061" spans="1:6" x14ac:dyDescent="0.3">
@@ -35456,7 +35456,7 @@
         <v>2329</v>
       </c>
       <c r="F1061" s="4" t="s">
-        <v>4700</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="1062" spans="1:6" x14ac:dyDescent="0.3">
@@ -35467,13 +35467,13 @@
         <v>2161</v>
       </c>
       <c r="C1062" s="1" t="s">
-        <v>4962</v>
+        <v>4961</v>
       </c>
       <c r="E1062" s="1" t="s">
         <v>2332</v>
       </c>
       <c r="F1062" s="4" t="s">
-        <v>4701</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="1063" spans="1:6" x14ac:dyDescent="0.3">
@@ -35490,7 +35490,7 @@
         <v>2335</v>
       </c>
       <c r="F1063" s="4" t="s">
-        <v>4702</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="1064" spans="1:6" x14ac:dyDescent="0.3">
@@ -35507,7 +35507,7 @@
         <v>2338</v>
       </c>
       <c r="F1064" s="4" t="s">
-        <v>4703</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="1065" spans="1:6" x14ac:dyDescent="0.3">
@@ -35524,7 +35524,7 @@
         <v>2341</v>
       </c>
       <c r="F1065" s="4" t="s">
-        <v>4704</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="1066" spans="1:6" x14ac:dyDescent="0.3">
@@ -35541,7 +35541,7 @@
         <v>2344</v>
       </c>
       <c r="F1066" s="4" t="s">
-        <v>4705</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="1067" spans="1:6" x14ac:dyDescent="0.3">
@@ -35558,7 +35558,7 @@
         <v>2347</v>
       </c>
       <c r="F1067" s="4" t="s">
-        <v>4706</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="1068" spans="1:6" x14ac:dyDescent="0.3">
@@ -35575,7 +35575,7 @@
         <v>2350</v>
       </c>
       <c r="F1068" s="4" t="s">
-        <v>4707</v>
+        <v>4706</v>
       </c>
     </row>
     <row r="1069" spans="1:6" x14ac:dyDescent="0.3">
@@ -35592,7 +35592,7 @@
         <v>2353</v>
       </c>
       <c r="F1069" s="4" t="s">
-        <v>4708</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="1070" spans="1:6" x14ac:dyDescent="0.3">
@@ -35609,7 +35609,7 @@
         <v>2356</v>
       </c>
       <c r="F1070" s="4" t="s">
-        <v>4709</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="1071" spans="1:6" x14ac:dyDescent="0.3">
@@ -35626,7 +35626,7 @@
         <v>2359</v>
       </c>
       <c r="F1071" s="4" t="s">
-        <v>4710</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="1072" spans="1:6" x14ac:dyDescent="0.3">
@@ -35643,7 +35643,7 @@
         <v>2362</v>
       </c>
       <c r="F1072" s="4" t="s">
-        <v>4711</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="1073" spans="1:6" x14ac:dyDescent="0.3">
@@ -35660,7 +35660,7 @@
         <v>2335</v>
       </c>
       <c r="F1073" s="4" t="s">
-        <v>4712</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="1074" spans="1:6" x14ac:dyDescent="0.3">
@@ -35677,7 +35677,7 @@
         <v>2367</v>
       </c>
       <c r="F1074" s="4" t="s">
-        <v>4713</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="1075" spans="1:6" x14ac:dyDescent="0.3">
@@ -35694,7 +35694,7 @@
         <v>2370</v>
       </c>
       <c r="F1075" s="4" t="s">
-        <v>4714</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="1076" spans="1:6" x14ac:dyDescent="0.3">
@@ -35711,7 +35711,7 @@
         <v>2373</v>
       </c>
       <c r="F1076" s="4" t="s">
-        <v>5157</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="1077" spans="1:6" x14ac:dyDescent="0.3">
@@ -35728,7 +35728,7 @@
         <v>2376</v>
       </c>
       <c r="F1077" s="4" t="s">
-        <v>4715</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="1078" spans="1:6" x14ac:dyDescent="0.3">
@@ -35745,7 +35745,7 @@
         <v>2379</v>
       </c>
       <c r="F1078" s="4" t="s">
-        <v>4716</v>
+        <v>4715</v>
       </c>
     </row>
     <row r="1079" spans="1:6" x14ac:dyDescent="0.3">
@@ -35762,7 +35762,7 @@
         <v>2382</v>
       </c>
       <c r="F1079" s="4" t="s">
-        <v>4717</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="1080" spans="1:6" x14ac:dyDescent="0.3">
@@ -35779,7 +35779,7 @@
         <v>2385</v>
       </c>
       <c r="F1080" s="4" t="s">
-        <v>4718</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="1081" spans="1:6" x14ac:dyDescent="0.3">
@@ -35796,7 +35796,7 @@
         <v>2388</v>
       </c>
       <c r="F1081" s="4" t="s">
-        <v>4719</v>
+        <v>4718</v>
       </c>
     </row>
     <row r="1082" spans="1:6" x14ac:dyDescent="0.3">
@@ -35813,7 +35813,7 @@
         <v>2391</v>
       </c>
       <c r="F1082" s="4" t="s">
-        <v>4720</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="1083" spans="1:6" x14ac:dyDescent="0.3">
@@ -35830,7 +35830,7 @@
         <v>2394</v>
       </c>
       <c r="F1083" s="4" t="s">
-        <v>4721</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="1084" spans="1:6" x14ac:dyDescent="0.3">
@@ -35847,7 +35847,7 @@
         <v>2397</v>
       </c>
       <c r="F1084" s="4" t="s">
-        <v>4722</v>
+        <v>4721</v>
       </c>
     </row>
     <row r="1085" spans="1:6" x14ac:dyDescent="0.3">
@@ -35864,7 +35864,7 @@
         <v>2400</v>
       </c>
       <c r="F1085" s="4" t="s">
-        <v>4725</v>
+        <v>4724</v>
       </c>
     </row>
     <row r="1086" spans="1:6" x14ac:dyDescent="0.3">
@@ -35881,7 +35881,7 @@
         <v>2403</v>
       </c>
       <c r="F1086" s="4" t="s">
-        <v>4726</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="1087" spans="1:6" x14ac:dyDescent="0.3">
@@ -35898,7 +35898,7 @@
         <v>2406</v>
       </c>
       <c r="F1087" s="4" t="s">
-        <v>4727</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="1088" spans="1:6" x14ac:dyDescent="0.3">
@@ -35912,10 +35912,10 @@
         <v>2550</v>
       </c>
       <c r="E1088" s="1" t="s">
-        <v>4950</v>
+        <v>4949</v>
       </c>
       <c r="F1088" s="4" t="s">
-        <v>4728</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="1089" spans="1:6" x14ac:dyDescent="0.3">
@@ -35932,7 +35932,7 @@
         <v>2411</v>
       </c>
       <c r="F1089" s="4" t="s">
-        <v>4729</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="1090" spans="1:6" x14ac:dyDescent="0.3">
@@ -35949,7 +35949,7 @@
         <v>2414</v>
       </c>
       <c r="F1090" s="4" t="s">
-        <v>4730</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="1091" spans="1:6" x14ac:dyDescent="0.3">
@@ -35966,7 +35966,7 @@
         <v>2417</v>
       </c>
       <c r="F1091" s="4" t="s">
-        <v>4731</v>
+        <v>4730</v>
       </c>
     </row>
     <row r="1092" spans="1:6" x14ac:dyDescent="0.3">
@@ -35983,7 +35983,7 @@
         <v>2420</v>
       </c>
       <c r="F1092" s="4" t="s">
-        <v>5158</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="1093" spans="1:6" x14ac:dyDescent="0.3">
@@ -36000,7 +36000,7 @@
         <v>2423</v>
       </c>
       <c r="F1093" s="4" t="s">
-        <v>4732</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="1094" spans="1:6" x14ac:dyDescent="0.3">
@@ -36017,7 +36017,7 @@
         <v>2426</v>
       </c>
       <c r="F1094" s="4" t="s">
-        <v>4733</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="1095" spans="1:6" x14ac:dyDescent="0.3">
@@ -36034,7 +36034,7 @@
         <v>2429</v>
       </c>
       <c r="F1095" s="4" t="s">
-        <v>4734</v>
+        <v>4733</v>
       </c>
     </row>
     <row r="1096" spans="1:6" x14ac:dyDescent="0.3">
@@ -36051,7 +36051,7 @@
         <v>2432</v>
       </c>
       <c r="F1096" s="4" t="s">
-        <v>4735</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="1097" spans="1:6" x14ac:dyDescent="0.3">
@@ -36068,7 +36068,7 @@
         <v>2435</v>
       </c>
       <c r="F1097" s="4" t="s">
-        <v>4736</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="1098" spans="1:6" x14ac:dyDescent="0.3">
@@ -36085,7 +36085,7 @@
         <v>2438</v>
       </c>
       <c r="F1098" s="4" t="s">
-        <v>5159</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="1099" spans="1:6" x14ac:dyDescent="0.3">
@@ -36102,7 +36102,7 @@
         <v>2441</v>
       </c>
       <c r="F1099" s="4" t="s">
-        <v>5160</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="1100" spans="1:6" x14ac:dyDescent="0.3">
@@ -36119,7 +36119,7 @@
         <v>2444</v>
       </c>
       <c r="F1100" s="4" t="s">
-        <v>4738</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="1101" spans="1:6" x14ac:dyDescent="0.3">
@@ -36136,7 +36136,7 @@
         <v>2447</v>
       </c>
       <c r="F1101" s="4" t="s">
-        <v>4760</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="1102" spans="1:6" x14ac:dyDescent="0.3">
@@ -36153,7 +36153,7 @@
         <v>2450</v>
       </c>
       <c r="F1102" s="4" t="s">
-        <v>4742</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="1103" spans="1:6" x14ac:dyDescent="0.3">
@@ -36170,7 +36170,7 @@
         <v>2453</v>
       </c>
       <c r="F1103" s="4" t="s">
-        <v>4740</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="1104" spans="1:6" x14ac:dyDescent="0.3">
@@ -36187,7 +36187,7 @@
         <v>2456</v>
       </c>
       <c r="F1104" s="4" t="s">
-        <v>4743</v>
+        <v>4742</v>
       </c>
     </row>
     <row r="1105" spans="1:6" x14ac:dyDescent="0.3">
@@ -36204,7 +36204,7 @@
         <v>2459</v>
       </c>
       <c r="F1105" s="4" t="s">
-        <v>5161</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="1106" spans="1:6" x14ac:dyDescent="0.3">
@@ -36221,7 +36221,7 @@
         <v>2462</v>
       </c>
       <c r="F1106" s="4" t="s">
-        <v>4744</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="1107" spans="1:6" x14ac:dyDescent="0.3">
@@ -36238,7 +36238,7 @@
         <v>2465</v>
       </c>
       <c r="F1107" s="4" t="s">
-        <v>4745</v>
+        <v>4744</v>
       </c>
     </row>
     <row r="1108" spans="1:6" x14ac:dyDescent="0.3">
@@ -36255,7 +36255,7 @@
         <v>2468</v>
       </c>
       <c r="F1108" s="4" t="s">
-        <v>5162</v>
+        <v>5161</v>
       </c>
     </row>
     <row r="1109" spans="1:6" x14ac:dyDescent="0.3">
@@ -36272,7 +36272,7 @@
         <v>2471</v>
       </c>
       <c r="F1109" s="4" t="s">
-        <v>5155</v>
+        <v>5154</v>
       </c>
     </row>
     <row r="1110" spans="1:6" x14ac:dyDescent="0.3">
@@ -36289,7 +36289,7 @@
         <v>2474</v>
       </c>
       <c r="F1110" s="4" t="s">
-        <v>4747</v>
+        <v>4746</v>
       </c>
     </row>
     <row r="1111" spans="1:6" x14ac:dyDescent="0.3">
@@ -36303,10 +36303,10 @@
         <v>2596</v>
       </c>
       <c r="E1111" s="1" t="s">
-        <v>4753</v>
+        <v>4752</v>
       </c>
       <c r="F1111" s="4" t="s">
-        <v>4748</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="1112" spans="1:6" x14ac:dyDescent="0.3">
@@ -36323,7 +36323,7 @@
         <v>2479</v>
       </c>
       <c r="F1112" s="4" t="s">
-        <v>4749</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="1113" spans="1:6" x14ac:dyDescent="0.3">
@@ -36337,10 +36337,10 @@
         <v>2600</v>
       </c>
       <c r="E1113" s="1" t="s">
-        <v>4755</v>
+        <v>4754</v>
       </c>
       <c r="F1113" s="4" t="s">
-        <v>4750</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="1114" spans="1:6" x14ac:dyDescent="0.3">
@@ -36357,7 +36357,7 @@
         <v>2484</v>
       </c>
       <c r="F1114" s="4" t="s">
-        <v>4751</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="1115" spans="1:6" x14ac:dyDescent="0.3">
@@ -36374,7 +36374,7 @@
         <v>2487</v>
       </c>
       <c r="F1115" s="4" t="s">
-        <v>4752</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="1116" spans="1:6" x14ac:dyDescent="0.3">
@@ -36391,7 +36391,7 @@
         <v>2490</v>
       </c>
       <c r="F1116" s="4" t="s">
-        <v>4754</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="1117" spans="1:6" x14ac:dyDescent="0.3">
@@ -36408,7 +36408,7 @@
         <v>2493</v>
       </c>
       <c r="F1117" s="4" t="s">
-        <v>4758</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="1118" spans="1:6" x14ac:dyDescent="0.3">
@@ -36425,49 +36425,49 @@
         <v>2495</v>
       </c>
       <c r="F1118" s="4" t="s">
-        <v>4757</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="1119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1119" s="1" t="s">
-        <v>4770</v>
+        <v>4769</v>
       </c>
       <c r="B1119" s="1" t="s">
         <v>2161</v>
       </c>
       <c r="C1119" s="1" t="s">
-        <v>4775</v>
+        <v>4774</v>
       </c>
       <c r="F1119" s="4" t="s">
-        <v>4768</v>
+        <v>4767</v>
       </c>
     </row>
     <row r="1120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1120" s="1" t="s">
-        <v>4771</v>
+        <v>4770</v>
       </c>
       <c r="B1120" s="1" t="s">
         <v>2161</v>
       </c>
       <c r="C1120" s="1" t="s">
-        <v>4774</v>
+        <v>4773</v>
       </c>
       <c r="F1120" s="4" t="s">
-        <v>4756</v>
+        <v>4755</v>
       </c>
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1121" s="1" t="s">
+        <v>4771</v>
+      </c>
+      <c r="B1121" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C1121" s="1" t="s">
         <v>4772</v>
       </c>
-      <c r="B1121" s="1" t="s">
-        <v>2161</v>
-      </c>
-      <c r="C1121" s="1" t="s">
-        <v>4773</v>
-      </c>
       <c r="F1121" s="4" t="s">
-        <v>4769</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.3">
@@ -37147,7 +37147,7 @@
         <v>2730</v>
       </c>
       <c r="F1161" s="4" t="s">
-        <v>5081</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="1162" spans="1:6" x14ac:dyDescent="0.3">
@@ -37164,7 +37164,7 @@
         <v>2733</v>
       </c>
       <c r="F1162" s="4" t="s">
-        <v>5082</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="1163" spans="1:6" x14ac:dyDescent="0.3">
@@ -37181,7 +37181,7 @@
         <v>2736</v>
       </c>
       <c r="F1163" s="4" t="s">
-        <v>5083</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="1164" spans="1:6" x14ac:dyDescent="0.3">
@@ -37198,7 +37198,7 @@
         <v>2739</v>
       </c>
       <c r="F1164" s="4" t="s">
-        <v>5084</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="1165" spans="1:6" x14ac:dyDescent="0.3">
@@ -37215,7 +37215,7 @@
         <v>2742</v>
       </c>
       <c r="F1165" s="4" t="s">
-        <v>5085</v>
+        <v>5084</v>
       </c>
     </row>
     <row r="1166" spans="1:6" x14ac:dyDescent="0.3">
@@ -37232,7 +37232,7 @@
         <v>2745</v>
       </c>
       <c r="F1166" s="4" t="s">
-        <v>5086</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="1167" spans="1:6" x14ac:dyDescent="0.3">
@@ -37249,7 +37249,7 @@
         <v>2748</v>
       </c>
       <c r="F1167" s="4" t="s">
-        <v>5087</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="1168" spans="1:6" x14ac:dyDescent="0.3">
@@ -37484,10 +37484,10 @@
         <v>2789</v>
       </c>
       <c r="E1181" s="1" t="s">
-        <v>5131</v>
+        <v>5130</v>
       </c>
       <c r="F1181" s="4" t="s">
-        <v>5088</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="1182" spans="1:6" x14ac:dyDescent="0.3">
@@ -37501,10 +37501,10 @@
         <v>2791</v>
       </c>
       <c r="E1182" s="1" t="s">
-        <v>5130</v>
+        <v>5129</v>
       </c>
       <c r="F1182" s="4" t="s">
-        <v>5089</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="1183" spans="1:6" x14ac:dyDescent="0.3">
@@ -37518,10 +37518,10 @@
         <v>2793</v>
       </c>
       <c r="E1183" s="1" t="s">
-        <v>5128</v>
+        <v>5127</v>
       </c>
       <c r="F1183" s="4" t="s">
-        <v>5090</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="1184" spans="1:6" x14ac:dyDescent="0.3">
@@ -37538,7 +37538,7 @@
         <v>2796</v>
       </c>
       <c r="F1184" s="4" t="s">
-        <v>5091</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="1185" spans="1:6" x14ac:dyDescent="0.3">
@@ -37555,7 +37555,7 @@
         <v>2799</v>
       </c>
       <c r="F1185" s="4" t="s">
-        <v>5092</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="1186" spans="1:6" x14ac:dyDescent="0.3">
@@ -37572,7 +37572,7 @@
         <v>2802</v>
       </c>
       <c r="F1186" s="4" t="s">
-        <v>5093</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="1187" spans="1:6" x14ac:dyDescent="0.3">
@@ -37586,10 +37586,10 @@
         <v>2804</v>
       </c>
       <c r="E1187" s="1" t="s">
-        <v>5129</v>
+        <v>5128</v>
       </c>
       <c r="F1187" s="4" t="s">
-        <v>5094</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="1188" spans="1:6" x14ac:dyDescent="0.3">
@@ -37606,7 +37606,7 @@
         <v>2808</v>
       </c>
       <c r="F1188" s="4" t="s">
-        <v>5095</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="1189" spans="1:6" x14ac:dyDescent="0.3">
@@ -37623,7 +37623,7 @@
         <v>2811</v>
       </c>
       <c r="F1189" s="4" t="s">
-        <v>5096</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="1190" spans="1:6" x14ac:dyDescent="0.3">
@@ -37637,10 +37637,10 @@
         <v>2813</v>
       </c>
       <c r="E1190" s="1" t="s">
-        <v>5127</v>
+        <v>5126</v>
       </c>
       <c r="F1190" s="4" t="s">
-        <v>5097</v>
+        <v>5096</v>
       </c>
     </row>
     <row r="1191" spans="1:6" x14ac:dyDescent="0.3">
@@ -37657,7 +37657,7 @@
         <v>2816</v>
       </c>
       <c r="F1191" s="4" t="s">
-        <v>5098</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="1192" spans="1:6" x14ac:dyDescent="0.3">
@@ -37674,7 +37674,7 @@
         <v>2819</v>
       </c>
       <c r="F1192" s="4" t="s">
-        <v>5099</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="1193" spans="1:6" x14ac:dyDescent="0.3">
@@ -37691,7 +37691,7 @@
         <v>2822</v>
       </c>
       <c r="F1193" s="4" t="s">
-        <v>5100</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="1194" spans="1:6" x14ac:dyDescent="0.3">
@@ -37708,7 +37708,7 @@
         <v>2825</v>
       </c>
       <c r="F1194" s="4" t="s">
-        <v>5101</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="1195" spans="1:6" x14ac:dyDescent="0.3">
@@ -37725,7 +37725,7 @@
         <v>2828</v>
       </c>
       <c r="F1195" s="4" t="s">
-        <v>5102</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="1196" spans="1:6" x14ac:dyDescent="0.3">
@@ -37742,7 +37742,7 @@
         <v>2831</v>
       </c>
       <c r="F1196" s="4" t="s">
-        <v>5103</v>
+        <v>5102</v>
       </c>
     </row>
     <row r="1197" spans="1:6" x14ac:dyDescent="0.3">
@@ -37759,7 +37759,7 @@
         <v>2834</v>
       </c>
       <c r="F1197" s="4" t="s">
-        <v>5104</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="1198" spans="1:6" x14ac:dyDescent="0.3">
@@ -37773,10 +37773,10 @@
         <v>2836</v>
       </c>
       <c r="E1198" s="1" t="s">
-        <v>5125</v>
+        <v>5124</v>
       </c>
       <c r="F1198" s="4" t="s">
-        <v>5105</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="1199" spans="1:6" x14ac:dyDescent="0.3">
@@ -37793,7 +37793,7 @@
         <v>2078</v>
       </c>
       <c r="F1199" s="4" t="s">
-        <v>5106</v>
+        <v>5105</v>
       </c>
     </row>
     <row r="1200" spans="1:6" x14ac:dyDescent="0.3">
@@ -37807,10 +37807,10 @@
         <v>2840</v>
       </c>
       <c r="E1200" s="1" t="s">
-        <v>5126</v>
+        <v>5125</v>
       </c>
       <c r="F1200" s="4" t="s">
-        <v>5107</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="1201" spans="1:6" x14ac:dyDescent="0.3">
@@ -37827,7 +37827,7 @@
         <v>2843</v>
       </c>
       <c r="F1201" s="4" t="s">
-        <v>5108</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="1202" spans="1:6" x14ac:dyDescent="0.3">
@@ -37844,7 +37844,7 @@
         <v>2846</v>
       </c>
       <c r="F1202" s="4" t="s">
-        <v>5110</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="1203" spans="1:6" x14ac:dyDescent="0.3">
@@ -37861,7 +37861,7 @@
         <v>2849</v>
       </c>
       <c r="F1203" s="4" t="s">
-        <v>5111</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="1204" spans="1:6" x14ac:dyDescent="0.3">
@@ -37878,7 +37878,7 @@
         <v>2852</v>
       </c>
       <c r="F1204" s="4" t="s">
-        <v>5112</v>
+        <v>5111</v>
       </c>
     </row>
     <row r="1205" spans="1:6" x14ac:dyDescent="0.3">
@@ -37895,7 +37895,7 @@
         <v>2855</v>
       </c>
       <c r="F1205" s="4" t="s">
-        <v>5114</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="1206" spans="1:6" x14ac:dyDescent="0.3">
@@ -37912,7 +37912,7 @@
         <v>2858</v>
       </c>
       <c r="F1206" s="4" t="s">
-        <v>5115</v>
+        <v>5114</v>
       </c>
     </row>
     <row r="1207" spans="1:6" x14ac:dyDescent="0.3">
@@ -37929,7 +37929,7 @@
         <v>2861</v>
       </c>
       <c r="F1207" s="4" t="s">
-        <v>5116</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="1208" spans="1:6" x14ac:dyDescent="0.3">
@@ -37946,7 +37946,7 @@
         <v>2864</v>
       </c>
       <c r="F1208" s="4" t="s">
-        <v>5117</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="1209" spans="1:6" x14ac:dyDescent="0.3">
@@ -37963,7 +37963,7 @@
         <v>2867</v>
       </c>
       <c r="F1209" s="4" t="s">
-        <v>5118</v>
+        <v>5117</v>
       </c>
     </row>
     <row r="1210" spans="1:6" x14ac:dyDescent="0.3">
@@ -37980,7 +37980,7 @@
         <v>2870</v>
       </c>
       <c r="F1210" s="4" t="s">
-        <v>5119</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="1211" spans="1:6" x14ac:dyDescent="0.3">
@@ -37997,7 +37997,7 @@
         <v>2873</v>
       </c>
       <c r="F1211" s="4" t="s">
-        <v>5120</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="1212" spans="1:6" x14ac:dyDescent="0.3">
@@ -38014,7 +38014,7 @@
         <v>2649</v>
       </c>
       <c r="F1212" s="4" t="s">
-        <v>5121</v>
+        <v>5120</v>
       </c>
     </row>
     <row r="1213" spans="1:6" x14ac:dyDescent="0.3">
@@ -38031,7 +38031,7 @@
         <v>2878</v>
       </c>
       <c r="F1213" s="4" t="s">
-        <v>5122</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="1214" spans="1:6" x14ac:dyDescent="0.3">
@@ -38045,15 +38045,15 @@
         <v>2880</v>
       </c>
       <c r="E1214" s="1" t="s">
-        <v>5124</v>
+        <v>5123</v>
       </c>
       <c r="F1214" s="4" t="s">
-        <v>5123</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="1215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1215" s="1" t="s">
-        <v>4776</v>
+        <v>4775</v>
       </c>
       <c r="B1215" s="1" t="s">
         <v>2161</v>
@@ -38065,7 +38065,7 @@
         <v>2882</v>
       </c>
       <c r="F1215" s="1" t="s">
-        <v>4777</v>
+        <v>4776</v>
       </c>
     </row>
     <row r="1216" spans="1:6" x14ac:dyDescent="0.3">
@@ -38082,7 +38082,7 @@
         <v>2885</v>
       </c>
       <c r="F1216" s="1" t="s">
-        <v>4778</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="1217" spans="1:6" x14ac:dyDescent="0.3">
@@ -38099,7 +38099,7 @@
         <v>2888</v>
       </c>
       <c r="F1217" s="1" t="s">
-        <v>4779</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="1218" spans="1:6" x14ac:dyDescent="0.3">
@@ -38116,7 +38116,7 @@
         <v>2891</v>
       </c>
       <c r="F1218" s="1" t="s">
-        <v>4780</v>
+        <v>4779</v>
       </c>
     </row>
     <row r="1219" spans="1:6" x14ac:dyDescent="0.3">
@@ -38144,7 +38144,7 @@
         <v>2896</v>
       </c>
       <c r="F1220" s="1" t="s">
-        <v>4781</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="1221" spans="1:6" x14ac:dyDescent="0.3">
@@ -38161,7 +38161,7 @@
         <v>2899</v>
       </c>
       <c r="F1221" s="1" t="s">
-        <v>4957</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="1222" spans="1:6" x14ac:dyDescent="0.3">
@@ -38175,10 +38175,10 @@
         <v>2901</v>
       </c>
       <c r="E1222" s="1" t="s">
-        <v>4943</v>
+        <v>4942</v>
       </c>
       <c r="F1222" s="1" t="s">
-        <v>4946</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="1223" spans="1:6" x14ac:dyDescent="0.3">
@@ -38195,7 +38195,7 @@
         <v>2902</v>
       </c>
       <c r="F1223" s="1" t="s">
-        <v>4782</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="1224" spans="1:6" x14ac:dyDescent="0.3">
@@ -38220,10 +38220,10 @@
         <v>2908</v>
       </c>
       <c r="E1225" s="1" t="s">
-        <v>4958</v>
+        <v>4957</v>
       </c>
       <c r="F1225" s="1" t="s">
-        <v>4783</v>
+        <v>4782</v>
       </c>
     </row>
     <row r="1226" spans="1:6" x14ac:dyDescent="0.3">
@@ -38240,7 +38240,7 @@
         <v>2909</v>
       </c>
       <c r="F1226" s="1" t="s">
-        <v>4784</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="1227" spans="1:6" x14ac:dyDescent="0.3">
@@ -38257,7 +38257,7 @@
         <v>2912</v>
       </c>
       <c r="F1227" s="1" t="s">
-        <v>4785</v>
+        <v>4784</v>
       </c>
     </row>
     <row r="1228" spans="1:6" x14ac:dyDescent="0.3">
@@ -38271,7 +38271,7 @@
         <v>2916</v>
       </c>
       <c r="F1228" s="1" t="s">
-        <v>4786</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="1229" spans="1:6" x14ac:dyDescent="0.3">
@@ -38299,7 +38299,7 @@
         <v>2917</v>
       </c>
       <c r="F1230" s="1" t="s">
-        <v>4787</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="1231" spans="1:6" x14ac:dyDescent="0.3">
@@ -38316,7 +38316,7 @@
         <v>2920</v>
       </c>
       <c r="F1231" s="1" t="s">
-        <v>4788</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="1232" spans="1:6" x14ac:dyDescent="0.3">
@@ -38344,7 +38344,7 @@
         <v>2927</v>
       </c>
       <c r="F1233" s="1" t="s">
-        <v>4789</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="1234" spans="1:6" x14ac:dyDescent="0.3">
@@ -38358,10 +38358,10 @@
         <v>2931</v>
       </c>
       <c r="E1234" s="1" t="s">
-        <v>5079</v>
+        <v>5078</v>
       </c>
       <c r="F1234" s="1" t="s">
-        <v>4790</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="1235" spans="1:6" x14ac:dyDescent="0.3">
@@ -38389,7 +38389,7 @@
         <v>2934</v>
       </c>
       <c r="F1236" s="1" t="s">
-        <v>4791</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="1237" spans="1:6" x14ac:dyDescent="0.3">
@@ -38406,7 +38406,7 @@
         <v>2937</v>
       </c>
       <c r="F1237" s="1" t="s">
-        <v>4792</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="1238" spans="1:6" x14ac:dyDescent="0.3">
@@ -38423,7 +38423,7 @@
         <v>2940</v>
       </c>
       <c r="F1238" s="1" t="s">
-        <v>4793</v>
+        <v>4792</v>
       </c>
     </row>
     <row r="1239" spans="1:6" x14ac:dyDescent="0.3">
@@ -38440,7 +38440,7 @@
         <v>2943</v>
       </c>
       <c r="F1239" s="1" t="s">
-        <v>4794</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="1240" spans="1:6" x14ac:dyDescent="0.3">
@@ -38457,7 +38457,7 @@
         <v>2946</v>
       </c>
       <c r="F1240" s="1" t="s">
-        <v>4795</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="1241" spans="1:6" x14ac:dyDescent="0.3">
@@ -38474,7 +38474,7 @@
         <v>2949</v>
       </c>
       <c r="F1241" s="1" t="s">
-        <v>4796</v>
+        <v>4795</v>
       </c>
     </row>
     <row r="1242" spans="1:6" x14ac:dyDescent="0.3">
@@ -38491,7 +38491,7 @@
         <v>2952</v>
       </c>
       <c r="F1242" s="1" t="s">
-        <v>4797</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="1243" spans="1:6" x14ac:dyDescent="0.3">
@@ -38516,10 +38516,10 @@
         <v>2959</v>
       </c>
       <c r="E1244" s="1" t="s">
-        <v>4955</v>
+        <v>4954</v>
       </c>
       <c r="F1244" s="1" t="s">
-        <v>4798</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="1245" spans="1:6" x14ac:dyDescent="0.3">
@@ -38536,7 +38536,7 @@
         <v>2957</v>
       </c>
       <c r="F1245" s="1" t="s">
-        <v>4951</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="1246" spans="1:6" x14ac:dyDescent="0.3">
@@ -38553,7 +38553,7 @@
         <v>2960</v>
       </c>
       <c r="F1246" s="1" t="s">
-        <v>4952</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="1247" spans="1:6" x14ac:dyDescent="0.3">
@@ -38567,69 +38567,69 @@
         <v>2966</v>
       </c>
       <c r="E1247" s="1" t="s">
-        <v>4954</v>
+        <v>4953</v>
       </c>
       <c r="F1247" s="1" t="s">
-        <v>4953</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="1248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1248" s="1" t="s">
-        <v>4800</v>
+        <v>4799</v>
       </c>
       <c r="B1248" s="1" t="s">
         <v>2161</v>
       </c>
       <c r="C1248" s="1" t="s">
-        <v>4803</v>
+        <v>4802</v>
       </c>
       <c r="E1248" s="1" t="s">
-        <v>4956</v>
+        <v>4955</v>
       </c>
       <c r="F1248" s="1" t="s">
-        <v>4799</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="1249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1249" s="1" t="s">
-        <v>4801</v>
+        <v>4800</v>
       </c>
       <c r="B1249" s="1" t="s">
         <v>2161</v>
       </c>
       <c r="C1249" s="1" t="s">
-        <v>4804</v>
+        <v>4803</v>
       </c>
       <c r="E1249" s="1" t="s">
-        <v>4806</v>
+        <v>4805</v>
       </c>
       <c r="F1249" s="1" t="s">
-        <v>5078</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="1250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1250" s="1" t="s">
-        <v>4802</v>
+        <v>4801</v>
       </c>
       <c r="B1250" s="1" t="s">
         <v>2161</v>
       </c>
       <c r="C1250" s="1" t="s">
-        <v>4805</v>
+        <v>4804</v>
       </c>
       <c r="F1250" s="3" t="s">
-        <v>5084</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="1251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1251" s="1" t="s">
+        <v>4943</v>
+      </c>
+      <c r="B1251" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C1251" s="1" t="s">
         <v>4944</v>
-      </c>
-      <c r="B1251" s="1" t="s">
-        <v>2161</v>
-      </c>
-      <c r="C1251" s="1" t="s">
-        <v>4945</v>
       </c>
     </row>
     <row r="1252" spans="1:6" x14ac:dyDescent="0.3">
@@ -38646,7 +38646,7 @@
         <v>2843</v>
       </c>
       <c r="F1252" s="4" t="s">
-        <v>4807</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="1253" spans="1:6" x14ac:dyDescent="0.3">
@@ -38663,7 +38663,7 @@
         <v>2852</v>
       </c>
       <c r="F1253" s="4" t="s">
-        <v>4808</v>
+        <v>4807</v>
       </c>
     </row>
     <row r="1254" spans="1:6" x14ac:dyDescent="0.3">
@@ -38680,12 +38680,12 @@
         <v>2973</v>
       </c>
       <c r="F1254" s="4" t="s">
-        <v>4809</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="1255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1255" s="1" t="s">
-        <v>5134</v>
+        <v>5133</v>
       </c>
       <c r="B1255" s="1" t="s">
         <v>2161</v>
@@ -38697,12 +38697,12 @@
         <v>2975</v>
       </c>
       <c r="F1255" s="4" t="s">
-        <v>4810</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="1256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1256" s="1" t="s">
-        <v>5133</v>
+        <v>5132</v>
       </c>
       <c r="B1256" s="1" t="s">
         <v>2161</v>
@@ -38714,7 +38714,7 @@
         <v>2977</v>
       </c>
       <c r="F1256" s="4" t="s">
-        <v>4811</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="1257" spans="1:6" x14ac:dyDescent="0.3">
@@ -38728,10 +38728,10 @@
         <v>2979</v>
       </c>
       <c r="E1257" s="1" t="s">
-        <v>5132</v>
+        <v>5131</v>
       </c>
       <c r="F1257" s="4" t="s">
-        <v>4812</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="1258" spans="1:6" x14ac:dyDescent="0.3">
@@ -38748,7 +38748,7 @@
         <v>2816</v>
       </c>
       <c r="F1258" s="4" t="s">
-        <v>4813</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="1259" spans="1:6" x14ac:dyDescent="0.3">
@@ -38765,7 +38765,7 @@
         <v>2984</v>
       </c>
       <c r="F1259" s="4" t="s">
-        <v>4942</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="1260" spans="1:6" x14ac:dyDescent="0.3">
@@ -38782,7 +38782,7 @@
         <v>2987</v>
       </c>
       <c r="F1260" s="1" t="s">
-        <v>4814</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="1261" spans="1:6" x14ac:dyDescent="0.3">
@@ -38799,7 +38799,7 @@
         <v>541</v>
       </c>
       <c r="F1261" s="1" t="s">
-        <v>4815</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="1262" spans="1:6" x14ac:dyDescent="0.3">
@@ -38816,7 +38816,7 @@
         <v>2992</v>
       </c>
       <c r="F1262" s="1" t="s">
-        <v>4816</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="1263" spans="1:6" x14ac:dyDescent="0.3">
@@ -38830,10 +38830,10 @@
         <v>2994</v>
       </c>
       <c r="E1263" s="1" t="s">
-        <v>5151</v>
+        <v>5150</v>
       </c>
       <c r="F1263" s="4" t="s">
-        <v>4817</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="1264" spans="1:6" x14ac:dyDescent="0.3">
@@ -38850,7 +38850,7 @@
         <v>2997</v>
       </c>
       <c r="F1264" s="4" t="s">
-        <v>4807</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="1265" spans="1:6" x14ac:dyDescent="0.3">
@@ -38867,7 +38867,7 @@
         <v>3000</v>
       </c>
       <c r="F1265" s="4" t="s">
-        <v>4818</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="1266" spans="1:6" x14ac:dyDescent="0.3">
@@ -38896,7 +38896,7 @@
         <v>3005</v>
       </c>
       <c r="F1267" s="4" t="s">
-        <v>4819</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="1268" spans="1:6" x14ac:dyDescent="0.3">
@@ -38913,7 +38913,7 @@
         <v>3008</v>
       </c>
       <c r="F1268" s="4" t="s">
-        <v>4820</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="1269" spans="1:6" x14ac:dyDescent="0.3">
@@ -38930,7 +38930,7 @@
         <v>3011</v>
       </c>
       <c r="F1269" s="4" t="s">
-        <v>4821</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="1270" spans="1:6" x14ac:dyDescent="0.3">
@@ -38947,7 +38947,7 @@
         <v>3014</v>
       </c>
       <c r="F1270" s="4" t="s">
-        <v>4822</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="1271" spans="1:6" x14ac:dyDescent="0.3">
@@ -38964,7 +38964,7 @@
         <v>3017</v>
       </c>
       <c r="F1271" s="4" t="s">
-        <v>4823</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="1272" spans="1:6" x14ac:dyDescent="0.3">
@@ -38981,7 +38981,7 @@
         <v>3020</v>
       </c>
       <c r="F1272" s="4" t="s">
-        <v>4824</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="1273" spans="1:6" x14ac:dyDescent="0.3">
@@ -38998,7 +38998,7 @@
         <v>3023</v>
       </c>
       <c r="F1273" s="4" t="s">
-        <v>4825</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="1274" spans="1:6" x14ac:dyDescent="0.3">
@@ -39015,7 +39015,7 @@
         <v>3026</v>
       </c>
       <c r="F1274" s="4" t="s">
-        <v>4826</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="1275" spans="1:6" x14ac:dyDescent="0.3">
@@ -39032,7 +39032,7 @@
         <v>3029</v>
       </c>
       <c r="F1275" s="4" t="s">
-        <v>4827</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="1276" spans="1:6" x14ac:dyDescent="0.3">
@@ -39049,7 +39049,7 @@
         <v>3032</v>
       </c>
       <c r="F1276" s="4" t="s">
-        <v>4828</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="1277" spans="1:6" x14ac:dyDescent="0.3">
@@ -39066,7 +39066,7 @@
         <v>3035</v>
       </c>
       <c r="F1277" s="4" t="s">
-        <v>4829</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="1278" spans="1:6" x14ac:dyDescent="0.3">
@@ -39083,7 +39083,7 @@
         <v>3038</v>
       </c>
       <c r="F1278" s="4" t="s">
-        <v>4830</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="1279" spans="1:6" x14ac:dyDescent="0.3">
@@ -39100,7 +39100,7 @@
         <v>3041</v>
       </c>
       <c r="F1279" s="4" t="s">
-        <v>4831</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="1280" spans="1:6" x14ac:dyDescent="0.3">
@@ -39117,7 +39117,7 @@
         <v>3044</v>
       </c>
       <c r="F1280" s="4" t="s">
-        <v>4832</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="1281" spans="1:6" x14ac:dyDescent="0.3">
@@ -39134,7 +39134,7 @@
         <v>3047</v>
       </c>
       <c r="F1281" s="4" t="s">
-        <v>4833</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="1282" spans="1:6" x14ac:dyDescent="0.3">
@@ -39151,7 +39151,7 @@
         <v>3050</v>
       </c>
       <c r="F1282" s="4" t="s">
-        <v>4834</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="1283" spans="1:6" x14ac:dyDescent="0.3">
@@ -39168,7 +39168,7 @@
         <v>3053</v>
       </c>
       <c r="F1283" s="4" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="1284" spans="1:6" x14ac:dyDescent="0.3">
@@ -39185,7 +39185,7 @@
         <v>3056</v>
       </c>
       <c r="F1284" s="4" t="s">
-        <v>4836</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="1285" spans="1:6" x14ac:dyDescent="0.3">
@@ -39202,7 +39202,7 @@
         <v>3059</v>
       </c>
       <c r="F1285" s="4" t="s">
-        <v>4837</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="1286" spans="1:6" x14ac:dyDescent="0.3">
@@ -39219,7 +39219,7 @@
         <v>3062</v>
       </c>
       <c r="F1286" s="4" t="s">
-        <v>4838</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="1287" spans="1:6" x14ac:dyDescent="0.3">
@@ -39236,7 +39236,7 @@
         <v>3065</v>
       </c>
       <c r="F1287" s="4" t="s">
-        <v>4839</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="1288" spans="1:6" x14ac:dyDescent="0.3">
@@ -39253,7 +39253,7 @@
         <v>3068</v>
       </c>
       <c r="F1288" s="4" t="s">
-        <v>4840</v>
+        <v>4839</v>
       </c>
     </row>
     <row r="1289" spans="1:6" x14ac:dyDescent="0.3">
@@ -39270,7 +39270,7 @@
         <v>3071</v>
       </c>
       <c r="F1289" s="4" t="s">
-        <v>4841</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="1290" spans="1:6" x14ac:dyDescent="0.3">
@@ -39287,7 +39287,7 @@
         <v>3074</v>
       </c>
       <c r="F1290" s="4" t="s">
-        <v>4842</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="1291" spans="1:6" x14ac:dyDescent="0.3">
@@ -39304,7 +39304,7 @@
         <v>3077</v>
       </c>
       <c r="F1291" s="4" t="s">
-        <v>4843</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="1292" spans="1:6" x14ac:dyDescent="0.3">
@@ -39321,7 +39321,7 @@
         <v>3080</v>
       </c>
       <c r="F1292" s="4" t="s">
-        <v>4844</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="1293" spans="1:6" x14ac:dyDescent="0.3">
@@ -39338,7 +39338,7 @@
         <v>3083</v>
       </c>
       <c r="F1293" s="4" t="s">
-        <v>4845</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="1294" spans="1:6" x14ac:dyDescent="0.3">
@@ -39355,7 +39355,7 @@
         <v>3086</v>
       </c>
       <c r="F1294" s="4" t="s">
-        <v>4846</v>
+        <v>4845</v>
       </c>
     </row>
     <row r="1295" spans="1:6" x14ac:dyDescent="0.3">
@@ -39372,7 +39372,7 @@
         <v>3089</v>
       </c>
       <c r="F1295" s="4" t="s">
-        <v>4847</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="1296" spans="1:6" x14ac:dyDescent="0.3">
@@ -39389,7 +39389,7 @@
         <v>3092</v>
       </c>
       <c r="F1296" s="4" t="s">
-        <v>4848</v>
+        <v>4847</v>
       </c>
     </row>
     <row r="1297" spans="1:6" x14ac:dyDescent="0.3">
@@ -39406,7 +39406,7 @@
         <v>3095</v>
       </c>
       <c r="F1297" s="4" t="s">
-        <v>4849</v>
+        <v>4848</v>
       </c>
     </row>
     <row r="1298" spans="1:6" x14ac:dyDescent="0.3">
@@ -39423,7 +39423,7 @@
         <v>3098</v>
       </c>
       <c r="F1298" s="4" t="s">
-        <v>4850</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="1299" spans="1:6" x14ac:dyDescent="0.3">
@@ -39440,7 +39440,7 @@
         <v>3101</v>
       </c>
       <c r="F1299" s="4" t="s">
-        <v>4851</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="1300" spans="1:6" x14ac:dyDescent="0.3">
@@ -39457,7 +39457,7 @@
         <v>3104</v>
       </c>
       <c r="F1300" s="4" t="s">
-        <v>4852</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="1301" spans="1:6" x14ac:dyDescent="0.3">
@@ -39474,7 +39474,7 @@
         <v>3107</v>
       </c>
       <c r="F1301" s="4" t="s">
-        <v>4853</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="1302" spans="1:6" x14ac:dyDescent="0.3">
@@ -39491,7 +39491,7 @@
         <v>3110</v>
       </c>
       <c r="F1302" s="4" t="s">
-        <v>4854</v>
+        <v>4853</v>
       </c>
     </row>
     <row r="1303" spans="1:6" x14ac:dyDescent="0.3">
@@ -39508,7 +39508,7 @@
         <v>3113</v>
       </c>
       <c r="F1303" s="4" t="s">
-        <v>4855</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="1304" spans="1:6" x14ac:dyDescent="0.3">
@@ -39525,7 +39525,7 @@
         <v>3116</v>
       </c>
       <c r="F1304" s="4" t="s">
-        <v>4856</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="1305" spans="1:6" x14ac:dyDescent="0.3">
@@ -39542,82 +39542,82 @@
         <v>3119</v>
       </c>
       <c r="F1305" s="4" t="s">
-        <v>4857</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="1306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1306" s="1" t="s">
-        <v>4863</v>
+        <v>4862</v>
       </c>
       <c r="B1306" s="1" t="s">
         <v>2161</v>
       </c>
       <c r="C1306" s="1" t="s">
-        <v>4869</v>
+        <v>4868</v>
       </c>
       <c r="F1306" s="4" t="s">
-        <v>4858</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="1307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1307" s="1" t="s">
-        <v>4864</v>
+        <v>4863</v>
       </c>
       <c r="B1307" s="1" t="s">
         <v>2161</v>
       </c>
       <c r="C1307" s="1" t="s">
-        <v>4870</v>
+        <v>4869</v>
       </c>
       <c r="F1307" s="4" t="s">
-        <v>4859</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="1308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1308" s="1" t="s">
-        <v>4865</v>
+        <v>4864</v>
       </c>
       <c r="B1308" s="1" t="s">
         <v>2161</v>
       </c>
       <c r="C1308" s="1" t="s">
-        <v>4871</v>
+        <v>4870</v>
       </c>
       <c r="F1308" s="4" t="s">
-        <v>4860</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="1309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1309" s="1" t="s">
-        <v>4866</v>
+        <v>4865</v>
       </c>
       <c r="B1309" s="1" t="s">
         <v>2161</v>
       </c>
       <c r="C1309" s="1" t="s">
-        <v>4872</v>
+        <v>4871</v>
       </c>
       <c r="F1309" s="4" t="s">
-        <v>4861</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="1310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1310" s="1" t="s">
-        <v>4867</v>
+        <v>4866</v>
       </c>
       <c r="B1310" s="1" t="s">
         <v>2161</v>
       </c>
       <c r="C1310" s="1" t="s">
-        <v>4873</v>
+        <v>4872</v>
       </c>
       <c r="F1310" s="4" t="s">
-        <v>4862</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="1311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1311" s="1" t="s">
-        <v>4868</v>
+        <v>4867</v>
       </c>
       <c r="B1311" s="1" t="s">
         <v>2161</v>
@@ -39629,7 +39629,7 @@
         <v>3121</v>
       </c>
       <c r="F1311" s="4" t="s">
-        <v>4847</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="1312" spans="1:6" x14ac:dyDescent="0.3">
@@ -39646,7 +39646,7 @@
         <v>3077</v>
       </c>
       <c r="F1312" s="4" t="s">
-        <v>4843</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="1313" spans="1:6" x14ac:dyDescent="0.3">
@@ -39663,7 +39663,7 @@
         <v>3026</v>
       </c>
       <c r="F1313" s="4" t="s">
-        <v>4826</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="1314" spans="1:6" x14ac:dyDescent="0.3">
@@ -39680,7 +39680,7 @@
         <v>3128</v>
       </c>
       <c r="F1314" s="4" t="s">
-        <v>4858</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="1315" spans="1:6" x14ac:dyDescent="0.3">
@@ -39697,7 +39697,7 @@
         <v>3086</v>
       </c>
       <c r="F1315" s="4" t="s">
-        <v>4846</v>
+        <v>4845</v>
       </c>
     </row>
     <row r="1316" spans="1:6" x14ac:dyDescent="0.3">
@@ -39714,7 +39714,7 @@
         <v>3133</v>
       </c>
       <c r="F1316" s="4" t="s">
-        <v>4859</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="1317" spans="1:6" x14ac:dyDescent="0.3">
@@ -39731,7 +39731,7 @@
         <v>3136</v>
       </c>
       <c r="F1317" s="4" t="s">
-        <v>4860</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="1318" spans="1:6" x14ac:dyDescent="0.3">
@@ -39748,7 +39748,7 @@
         <v>3139</v>
       </c>
       <c r="F1318" s="4" t="s">
-        <v>4861</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="1319" spans="1:6" x14ac:dyDescent="0.3">
@@ -39765,7 +39765,7 @@
         <v>3110</v>
       </c>
       <c r="F1319" s="4" t="s">
-        <v>4854</v>
+        <v>4853</v>
       </c>
     </row>
     <row r="1320" spans="1:6" x14ac:dyDescent="0.3">
@@ -39782,7 +39782,7 @@
         <v>3144</v>
       </c>
       <c r="F1320" s="4" t="s">
-        <v>4862</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="1321" spans="1:6" x14ac:dyDescent="0.3">
@@ -39799,7 +39799,7 @@
         <v>2997</v>
       </c>
       <c r="F1321" s="4" t="s">
-        <v>4807</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="1322" spans="1:6" x14ac:dyDescent="0.3">
@@ -39816,7 +39816,7 @@
         <v>3149</v>
       </c>
       <c r="F1322" s="4" t="s">
-        <v>4874</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="1323" spans="1:6" x14ac:dyDescent="0.3">
@@ -39833,7 +39833,7 @@
         <v>3152</v>
       </c>
       <c r="F1323" s="1" t="s">
-        <v>4875</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="1324" spans="1:6" x14ac:dyDescent="0.3">
@@ -39850,7 +39850,7 @@
         <v>3155</v>
       </c>
       <c r="F1324" s="1" t="s">
-        <v>4876</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="1325" spans="1:6" x14ac:dyDescent="0.3">
@@ -39867,7 +39867,7 @@
         <v>2799</v>
       </c>
       <c r="F1325" s="1" t="s">
-        <v>4877</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="1326" spans="1:6" x14ac:dyDescent="0.3">
@@ -39884,7 +39884,7 @@
         <v>3160</v>
       </c>
       <c r="F1326" s="1" t="s">
-        <v>4878</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="1327" spans="1:6" x14ac:dyDescent="0.3">
@@ -39901,7 +39901,7 @@
         <v>2987</v>
       </c>
       <c r="F1327" s="1" t="s">
-        <v>4814</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="1328" spans="1:6" x14ac:dyDescent="0.3">
@@ -39918,7 +39918,7 @@
         <v>541</v>
       </c>
       <c r="F1328" s="1" t="s">
-        <v>4815</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="1329" spans="1:6" x14ac:dyDescent="0.3">
@@ -39935,7 +39935,7 @@
         <v>2992</v>
       </c>
       <c r="F1329" s="1" t="s">
-        <v>4816</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="1330" spans="1:6" x14ac:dyDescent="0.3">
@@ -39952,7 +39952,7 @@
         <v>3169</v>
       </c>
       <c r="F1330" s="1" t="s">
-        <v>4879</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="1331" spans="1:6" x14ac:dyDescent="0.3">
@@ -39969,12 +39969,12 @@
         <v>2811</v>
       </c>
       <c r="F1331" s="1" t="s">
-        <v>4880</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="1332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1332" s="1" t="s">
-        <v>5139</v>
+        <v>5138</v>
       </c>
       <c r="B1332" s="1" t="s">
         <v>2161</v>
@@ -39986,24 +39986,24 @@
         <v>2808</v>
       </c>
       <c r="F1332" s="1" t="s">
-        <v>4881</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="1333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1333" s="1" t="s">
+        <v>5139</v>
+      </c>
+      <c r="B1333" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C1333" s="1" t="s">
         <v>5140</v>
       </c>
-      <c r="B1333" s="1" t="s">
-        <v>2161</v>
-      </c>
-      <c r="C1333" s="1" t="s">
-        <v>5141</v>
-      </c>
       <c r="E1333" s="1" t="s">
-        <v>5127</v>
+        <v>5126</v>
       </c>
       <c r="F1333" s="3" t="s">
-        <v>5097</v>
+        <v>5096</v>
       </c>
     </row>
     <row r="1334" spans="1:6" x14ac:dyDescent="0.3">
@@ -40020,7 +40020,7 @@
         <v>2825</v>
       </c>
       <c r="F1334" s="4" t="s">
-        <v>4882</v>
+        <v>4881</v>
       </c>
     </row>
     <row r="1335" spans="1:6" x14ac:dyDescent="0.3">
@@ -40037,7 +40037,7 @@
         <v>3177</v>
       </c>
       <c r="F1335" s="4" t="s">
-        <v>4883</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="1336" spans="1:6" x14ac:dyDescent="0.3">
@@ -40054,7 +40054,7 @@
         <v>2828</v>
       </c>
       <c r="F1336" s="4" t="s">
-        <v>4884</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="1337" spans="1:6" x14ac:dyDescent="0.3">
@@ -40071,7 +40071,7 @@
         <v>2822</v>
       </c>
       <c r="F1337" s="4" t="s">
-        <v>4885</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="1338" spans="1:6" x14ac:dyDescent="0.3">
@@ -40088,7 +40088,7 @@
         <v>2819</v>
       </c>
       <c r="F1338" s="4" t="s">
-        <v>4886</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="1339" spans="1:6" x14ac:dyDescent="0.3">
@@ -40105,7 +40105,7 @@
         <v>3186</v>
       </c>
       <c r="F1339" s="4" t="s">
-        <v>4887</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="1340" spans="1:6" x14ac:dyDescent="0.3">
@@ -40122,7 +40122,7 @@
         <v>3189</v>
       </c>
       <c r="F1340" s="4" t="s">
-        <v>4888</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="1341" spans="1:6" x14ac:dyDescent="0.3">
@@ -40139,7 +40139,7 @@
         <v>3192</v>
       </c>
       <c r="F1341" s="4" t="s">
-        <v>4889</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="1342" spans="1:6" x14ac:dyDescent="0.3">
@@ -40156,7 +40156,7 @@
         <v>3195</v>
       </c>
       <c r="F1342" s="4" t="s">
-        <v>4890</v>
+        <v>4889</v>
       </c>
     </row>
     <row r="1343" spans="1:6" x14ac:dyDescent="0.3">
@@ -40173,7 +40173,7 @@
         <v>3198</v>
       </c>
       <c r="F1343" s="4" t="s">
-        <v>4891</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="1344" spans="1:6" x14ac:dyDescent="0.3">
@@ -40190,7 +40190,7 @@
         <v>3201</v>
       </c>
       <c r="F1344" s="4" t="s">
-        <v>4892</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="1345" spans="1:6" x14ac:dyDescent="0.3">
@@ -40207,7 +40207,7 @@
         <v>3204</v>
       </c>
       <c r="F1345" s="4" t="s">
-        <v>4893</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="1346" spans="1:6" x14ac:dyDescent="0.3">
@@ -40224,7 +40224,7 @@
         <v>3207</v>
       </c>
       <c r="F1346" s="4" t="s">
-        <v>4894</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="1347" spans="1:6" x14ac:dyDescent="0.3">
@@ -40241,7 +40241,7 @@
         <v>3210</v>
       </c>
       <c r="F1347" s="4" t="s">
-        <v>4895</v>
+        <v>4894</v>
       </c>
     </row>
     <row r="1348" spans="1:6" x14ac:dyDescent="0.3">
@@ -40258,7 +40258,7 @@
         <v>3213</v>
       </c>
       <c r="F1348" s="4" t="s">
-        <v>4896</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="1349" spans="1:6" x14ac:dyDescent="0.3">
@@ -40275,7 +40275,7 @@
         <v>3216</v>
       </c>
       <c r="F1349" s="4" t="s">
-        <v>4897</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="1350" spans="1:6" x14ac:dyDescent="0.3">
@@ -40292,7 +40292,7 @@
         <v>3219</v>
       </c>
       <c r="F1350" s="4" t="s">
-        <v>4898</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="1351" spans="1:6" x14ac:dyDescent="0.3">
@@ -40309,7 +40309,7 @@
         <v>3222</v>
       </c>
       <c r="F1351" s="4" t="s">
-        <v>4899</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="1352" spans="1:6" x14ac:dyDescent="0.3">
@@ -40326,7 +40326,7 @@
         <v>3225</v>
       </c>
       <c r="F1352" s="4" t="s">
-        <v>4900</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="1353" spans="1:6" x14ac:dyDescent="0.3">
@@ -40343,7 +40343,7 @@
         <v>3228</v>
       </c>
       <c r="F1353" s="4" t="s">
-        <v>4901</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="1354" spans="1:6" x14ac:dyDescent="0.3">
@@ -40354,13 +40354,13 @@
         <v>2161</v>
       </c>
       <c r="C1354" s="1" t="s">
-        <v>5136</v>
+        <v>5135</v>
       </c>
       <c r="E1354" s="1" t="s">
-        <v>5135</v>
+        <v>5134</v>
       </c>
       <c r="F1354" s="4" t="s">
-        <v>4875</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="1355" spans="1:6" x14ac:dyDescent="0.3">
@@ -40377,7 +40377,7 @@
         <v>3155</v>
       </c>
       <c r="F1355" s="4" t="s">
-        <v>4876</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="1356" spans="1:6" x14ac:dyDescent="0.3">
@@ -40394,7 +40394,7 @@
         <v>3234</v>
       </c>
       <c r="F1356" s="4" t="s">
-        <v>4902</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="1357" spans="1:6" x14ac:dyDescent="0.3">
@@ -40411,7 +40411,7 @@
         <v>3237</v>
       </c>
       <c r="F1357" s="4" t="s">
-        <v>4903</v>
+        <v>4902</v>
       </c>
     </row>
     <row r="1358" spans="1:6" x14ac:dyDescent="0.3">
@@ -40428,12 +40428,12 @@
         <v>2805</v>
       </c>
       <c r="F1358" s="4" t="s">
-        <v>4904</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="1359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1359" s="1" t="s">
-        <v>5138</v>
+        <v>5137</v>
       </c>
       <c r="B1359" s="1" t="s">
         <v>2161</v>
@@ -40442,10 +40442,10 @@
         <v>3240</v>
       </c>
       <c r="E1359" s="1" t="s">
-        <v>5137</v>
+        <v>5136</v>
       </c>
       <c r="F1359" s="4" t="s">
-        <v>4905</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="1360" spans="1:6" x14ac:dyDescent="0.3">
@@ -40462,7 +40462,7 @@
         <v>2799</v>
       </c>
       <c r="F1360" s="4" t="s">
-        <v>4877</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="1361" spans="1:6" x14ac:dyDescent="0.3">
@@ -40479,7 +40479,7 @@
         <v>3160</v>
       </c>
       <c r="F1361" s="4" t="s">
-        <v>4878</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="1362" spans="1:6" x14ac:dyDescent="0.3">
@@ -40496,7 +40496,7 @@
         <v>3247</v>
       </c>
       <c r="F1362" s="4" t="s">
-        <v>4809</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="1363" spans="1:6" x14ac:dyDescent="0.3">
@@ -40513,7 +40513,7 @@
         <v>287</v>
       </c>
       <c r="F1363" s="4" t="s">
-        <v>4810</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="1364" spans="1:6" x14ac:dyDescent="0.3">
@@ -40530,7 +40530,7 @@
         <v>3252</v>
       </c>
       <c r="F1364" s="4" t="s">
-        <v>4811</v>
+        <v>4810</v>
       </c>
     </row>
     <row r="1365" spans="1:6" x14ac:dyDescent="0.3">
@@ -40547,7 +40547,7 @@
         <v>3255</v>
       </c>
       <c r="F1365" s="4" t="s">
-        <v>4814</v>
+        <v>4813</v>
       </c>
     </row>
     <row r="1366" spans="1:6" x14ac:dyDescent="0.3">
@@ -40564,7 +40564,7 @@
         <v>3258</v>
       </c>
       <c r="F1366" s="4" t="s">
-        <v>4815</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="1367" spans="1:6" x14ac:dyDescent="0.3">
@@ -40581,7 +40581,7 @@
         <v>3261</v>
       </c>
       <c r="F1367" s="4" t="s">
-        <v>4816</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="1368" spans="1:6" x14ac:dyDescent="0.3">
@@ -40598,7 +40598,7 @@
         <v>2858</v>
       </c>
       <c r="F1368" s="4" t="s">
-        <v>4817</v>
+        <v>4816</v>
       </c>
     </row>
     <row r="1369" spans="1:6" x14ac:dyDescent="0.3">
@@ -40615,7 +40615,7 @@
         <v>2843</v>
       </c>
       <c r="F1369" s="4" t="s">
-        <v>4807</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="1370" spans="1:6" x14ac:dyDescent="0.3">
@@ -40632,7 +40632,7 @@
         <v>2861</v>
       </c>
       <c r="F1370" s="4" t="s">
-        <v>4818</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="1371" spans="1:6" x14ac:dyDescent="0.3">
@@ -40661,7 +40661,7 @@
         <v>3272</v>
       </c>
       <c r="F1372" s="1" t="s">
-        <v>4941</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="1373" spans="1:6" x14ac:dyDescent="0.3">
@@ -40678,7 +40678,7 @@
         <v>2616</v>
       </c>
       <c r="F1373" s="1" t="s">
-        <v>4820</v>
+        <v>4819</v>
       </c>
     </row>
     <row r="1374" spans="1:6" x14ac:dyDescent="0.3">
@@ -40695,7 +40695,7 @@
         <v>2619</v>
       </c>
       <c r="F1374" s="1" t="s">
-        <v>4821</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="1375" spans="1:6" x14ac:dyDescent="0.3">
@@ -40712,7 +40712,7 @@
         <v>2622</v>
       </c>
       <c r="F1375" s="1" t="s">
-        <v>4823</v>
+        <v>4822</v>
       </c>
     </row>
     <row r="1376" spans="1:6" x14ac:dyDescent="0.3">
@@ -40729,7 +40729,7 @@
         <v>2625</v>
       </c>
       <c r="F1376" s="1" t="s">
-        <v>4822</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="1377" spans="1:6" x14ac:dyDescent="0.3">
@@ -40746,7 +40746,7 @@
         <v>2628</v>
       </c>
       <c r="F1377" s="1" t="s">
-        <v>4824</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="1378" spans="1:6" x14ac:dyDescent="0.3">
@@ -40763,7 +40763,7 @@
         <v>2631</v>
       </c>
       <c r="F1378" s="1" t="s">
-        <v>4825</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="1379" spans="1:6" x14ac:dyDescent="0.3">
@@ -40780,7 +40780,7 @@
         <v>2634</v>
       </c>
       <c r="F1379" s="1" t="s">
-        <v>4826</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="1380" spans="1:6" x14ac:dyDescent="0.3">
@@ -40797,7 +40797,7 @@
         <v>2637</v>
       </c>
       <c r="F1380" s="1" t="s">
-        <v>4827</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="1381" spans="1:6" x14ac:dyDescent="0.3">
@@ -40814,7 +40814,7 @@
         <v>2640</v>
       </c>
       <c r="F1381" s="1" t="s">
-        <v>4828</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="1382" spans="1:6" x14ac:dyDescent="0.3">
@@ -40831,7 +40831,7 @@
         <v>2643</v>
       </c>
       <c r="F1382" s="1" t="s">
-        <v>4829</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="1383" spans="1:6" x14ac:dyDescent="0.3">
@@ -40848,7 +40848,7 @@
         <v>2646</v>
       </c>
       <c r="F1383" s="1" t="s">
-        <v>4830</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="1384" spans="1:6" x14ac:dyDescent="0.3">
@@ -40865,7 +40865,7 @@
         <v>2649</v>
       </c>
       <c r="F1384" s="1" t="s">
-        <v>4831</v>
+        <v>4830</v>
       </c>
     </row>
     <row r="1385" spans="1:6" x14ac:dyDescent="0.3">
@@ -40882,7 +40882,7 @@
         <v>2652</v>
       </c>
       <c r="F1385" s="1" t="s">
-        <v>4832</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="1386" spans="1:6" x14ac:dyDescent="0.3">
@@ -40899,7 +40899,7 @@
         <v>2655</v>
       </c>
       <c r="F1386" s="1" t="s">
-        <v>4833</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="1387" spans="1:6" x14ac:dyDescent="0.3">
@@ -40916,7 +40916,7 @@
         <v>2658</v>
       </c>
       <c r="F1387" s="1" t="s">
-        <v>4834</v>
+        <v>4833</v>
       </c>
     </row>
     <row r="1388" spans="1:6" x14ac:dyDescent="0.3">
@@ -40933,7 +40933,7 @@
         <v>2661</v>
       </c>
       <c r="F1388" s="1" t="s">
-        <v>4835</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="1389" spans="1:6" x14ac:dyDescent="0.3">
@@ -40950,7 +40950,7 @@
         <v>2664</v>
       </c>
       <c r="F1389" s="1" t="s">
-        <v>4836</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="1390" spans="1:6" x14ac:dyDescent="0.3">
@@ -40967,7 +40967,7 @@
         <v>2667</v>
       </c>
       <c r="F1390" s="1" t="s">
-        <v>4837</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="1391" spans="1:6" x14ac:dyDescent="0.3">
@@ -40984,7 +40984,7 @@
         <v>2670</v>
       </c>
       <c r="F1391" s="1" t="s">
-        <v>4838</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="1392" spans="1:6" x14ac:dyDescent="0.3">
@@ -41001,7 +41001,7 @@
         <v>2673</v>
       </c>
       <c r="F1392" s="1" t="s">
-        <v>4839</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="1393" spans="1:6" x14ac:dyDescent="0.3">
@@ -41018,7 +41018,7 @@
         <v>2676</v>
       </c>
       <c r="F1393" s="1" t="s">
-        <v>4840</v>
+        <v>4839</v>
       </c>
     </row>
     <row r="1394" spans="1:6" x14ac:dyDescent="0.3">
@@ -41035,7 +41035,7 @@
         <v>2679</v>
       </c>
       <c r="F1394" s="1" t="s">
-        <v>4841</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="1395" spans="1:6" x14ac:dyDescent="0.3">
@@ -41052,7 +41052,7 @@
         <v>2682</v>
       </c>
       <c r="F1395" s="1" t="s">
-        <v>4842</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="1396" spans="1:6" x14ac:dyDescent="0.3">
@@ -41069,7 +41069,7 @@
         <v>2685</v>
       </c>
       <c r="F1396" s="1" t="s">
-        <v>4843</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="1397" spans="1:6" x14ac:dyDescent="0.3">
@@ -41086,7 +41086,7 @@
         <v>2688</v>
       </c>
       <c r="F1397" s="1" t="s">
-        <v>4844</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="1398" spans="1:6" x14ac:dyDescent="0.3">
@@ -41103,7 +41103,7 @@
         <v>2691</v>
       </c>
       <c r="F1398" s="1" t="s">
-        <v>4845</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="1399" spans="1:6" x14ac:dyDescent="0.3">
@@ -41120,7 +41120,7 @@
         <v>2694</v>
       </c>
       <c r="F1399" s="1" t="s">
-        <v>4846</v>
+        <v>4845</v>
       </c>
     </row>
     <row r="1400" spans="1:6" x14ac:dyDescent="0.3">
@@ -41134,10 +41134,10 @@
         <v>3328</v>
       </c>
       <c r="E1400" s="1" t="s">
-        <v>4940</v>
+        <v>4939</v>
       </c>
       <c r="F1400" s="1" t="s">
-        <v>4847</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="1401" spans="1:6" x14ac:dyDescent="0.3">
@@ -41154,7 +41154,7 @@
         <v>2700</v>
       </c>
       <c r="F1401" s="1" t="s">
-        <v>4848</v>
+        <v>4847</v>
       </c>
     </row>
     <row r="1402" spans="1:6" x14ac:dyDescent="0.3">
@@ -41171,7 +41171,7 @@
         <v>2703</v>
       </c>
       <c r="F1402" s="1" t="s">
-        <v>4849</v>
+        <v>4848</v>
       </c>
     </row>
     <row r="1403" spans="1:6" x14ac:dyDescent="0.3">
@@ -41188,7 +41188,7 @@
         <v>2706</v>
       </c>
       <c r="F1403" s="1" t="s">
-        <v>4850</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="1404" spans="1:6" x14ac:dyDescent="0.3">
@@ -41205,7 +41205,7 @@
         <v>2709</v>
       </c>
       <c r="F1404" s="1" t="s">
-        <v>4851</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="1405" spans="1:6" x14ac:dyDescent="0.3">
@@ -41222,7 +41222,7 @@
         <v>2712</v>
       </c>
       <c r="F1405" s="1" t="s">
-        <v>4852</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="1406" spans="1:6" x14ac:dyDescent="0.3">
@@ -41239,7 +41239,7 @@
         <v>2715</v>
       </c>
       <c r="F1406" s="1" t="s">
-        <v>4853</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="1407" spans="1:6" x14ac:dyDescent="0.3">
@@ -41256,7 +41256,7 @@
         <v>2718</v>
       </c>
       <c r="F1407" s="1" t="s">
-        <v>4854</v>
+        <v>4853</v>
       </c>
     </row>
     <row r="1408" spans="1:6" x14ac:dyDescent="0.3">
@@ -41273,7 +41273,7 @@
         <v>2721</v>
       </c>
       <c r="F1408" s="1" t="s">
-        <v>4855</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="1409" spans="1:6" x14ac:dyDescent="0.3">
@@ -41290,7 +41290,7 @@
         <v>2724</v>
       </c>
       <c r="F1409" s="1" t="s">
-        <v>4856</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="1410" spans="1:6" x14ac:dyDescent="0.3">
@@ -41307,7 +41307,7 @@
         <v>2727</v>
       </c>
       <c r="F1410" s="1" t="s">
-        <v>4857</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="1411" spans="1:6" x14ac:dyDescent="0.3">
@@ -41321,10 +41321,10 @@
         <v>3350</v>
       </c>
       <c r="E1411" s="1" t="s">
-        <v>4939</v>
+        <v>4938</v>
       </c>
       <c r="F1411" s="1" t="s">
-        <v>4858</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="1412" spans="1:6" x14ac:dyDescent="0.3">
@@ -41341,7 +41341,7 @@
         <v>3354</v>
       </c>
       <c r="F1412" s="1" t="s">
-        <v>4859</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="1413" spans="1:6" x14ac:dyDescent="0.3">
@@ -41358,7 +41358,7 @@
         <v>3357</v>
       </c>
       <c r="F1413" s="1" t="s">
-        <v>4860</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="1414" spans="1:6" x14ac:dyDescent="0.3">
@@ -41375,7 +41375,7 @@
         <v>3360</v>
       </c>
       <c r="F1414" s="1" t="s">
-        <v>4861</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="1415" spans="1:6" x14ac:dyDescent="0.3">
@@ -41392,7 +41392,7 @@
         <v>3363</v>
       </c>
       <c r="F1415" s="1" t="s">
-        <v>4862</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="1416" spans="1:6" x14ac:dyDescent="0.3">
@@ -41409,7 +41409,7 @@
         <v>3366</v>
       </c>
       <c r="F1416" s="3" t="s">
-        <v>4959</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="1417" spans="1:6" x14ac:dyDescent="0.3">
@@ -41426,7 +41426,7 @@
         <v>3351</v>
       </c>
       <c r="F1417" s="4" t="s">
-        <v>4847</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="1418" spans="1:6" x14ac:dyDescent="0.3">
@@ -41443,7 +41443,7 @@
         <v>2685</v>
       </c>
       <c r="F1418" s="4" t="s">
-        <v>4843</v>
+        <v>4842</v>
       </c>
     </row>
     <row r="1419" spans="1:6" x14ac:dyDescent="0.3">
@@ -41460,7 +41460,7 @@
         <v>2634</v>
       </c>
       <c r="F1419" s="4" t="s">
-        <v>4826</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="1420" spans="1:6" x14ac:dyDescent="0.3">
@@ -41477,7 +41477,7 @@
         <v>3354</v>
       </c>
       <c r="F1420" s="4" t="s">
-        <v>4858</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="1421" spans="1:6" x14ac:dyDescent="0.3">
@@ -41494,7 +41494,7 @@
         <v>2694</v>
       </c>
       <c r="F1421" s="4" t="s">
-        <v>4846</v>
+        <v>4845</v>
       </c>
     </row>
     <row r="1422" spans="1:6" x14ac:dyDescent="0.3">
@@ -41511,7 +41511,7 @@
         <v>3357</v>
       </c>
       <c r="F1422" s="4" t="s">
-        <v>4859</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="1423" spans="1:6" x14ac:dyDescent="0.3">
@@ -41528,7 +41528,7 @@
         <v>3360</v>
       </c>
       <c r="F1423" s="4" t="s">
-        <v>4860</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="1424" spans="1:6" x14ac:dyDescent="0.3">
@@ -41545,7 +41545,7 @@
         <v>3363</v>
       </c>
       <c r="F1424" s="4" t="s">
-        <v>4861</v>
+        <v>4860</v>
       </c>
     </row>
     <row r="1425" spans="1:6" x14ac:dyDescent="0.3">
@@ -41562,7 +41562,7 @@
         <v>2718</v>
       </c>
       <c r="F1425" s="4" t="s">
-        <v>4854</v>
+        <v>4853</v>
       </c>
     </row>
     <row r="1426" spans="1:6" x14ac:dyDescent="0.3">
@@ -41579,7 +41579,7 @@
         <v>3366</v>
       </c>
       <c r="F1426" s="4" t="s">
-        <v>4862</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="1427" spans="1:6" x14ac:dyDescent="0.3">
@@ -41596,7 +41596,7 @@
         <v>2843</v>
       </c>
       <c r="F1427" s="1" t="s">
-        <v>4807</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="1428" spans="1:6" x14ac:dyDescent="0.3">
@@ -41613,7 +41613,7 @@
         <v>2852</v>
       </c>
       <c r="F1428" s="1" t="s">
-        <v>4874</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="1429" spans="1:6" x14ac:dyDescent="0.3">
@@ -41630,7 +41630,7 @@
         <v>3393</v>
       </c>
       <c r="F1429" s="4" t="s">
-        <v>4879</v>
+        <v>4878</v>
       </c>
     </row>
     <row r="1430" spans="1:6" x14ac:dyDescent="0.3">
@@ -41647,7 +41647,7 @@
         <v>3396</v>
       </c>
       <c r="F1430" s="4" t="s">
-        <v>4880</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="1431" spans="1:6" x14ac:dyDescent="0.3">
@@ -41664,7 +41664,7 @@
         <v>3399</v>
       </c>
       <c r="F1431" s="4" t="s">
-        <v>4881</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="1432" spans="1:6" x14ac:dyDescent="0.3">
@@ -41681,7 +41681,7 @@
         <v>3402</v>
       </c>
       <c r="F1432" s="1" t="s">
-        <v>4882</v>
+        <v>4881</v>
       </c>
     </row>
     <row r="1433" spans="1:6" x14ac:dyDescent="0.3">
@@ -41698,7 +41698,7 @@
         <v>3405</v>
       </c>
       <c r="F1433" s="1" t="s">
-        <v>4883</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="1434" spans="1:6" x14ac:dyDescent="0.3">
@@ -41715,7 +41715,7 @@
         <v>3408</v>
       </c>
       <c r="F1434" s="1" t="s">
-        <v>4884</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="1435" spans="1:6" x14ac:dyDescent="0.3">
@@ -41732,7 +41732,7 @@
         <v>3411</v>
       </c>
       <c r="F1435" s="1" t="s">
-        <v>4885</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="1436" spans="1:6" x14ac:dyDescent="0.3">
@@ -41749,7 +41749,7 @@
         <v>3414</v>
       </c>
       <c r="F1436" s="1" t="s">
-        <v>4886</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="1437" spans="1:6" x14ac:dyDescent="0.3">
@@ -41766,7 +41766,7 @@
         <v>2878</v>
       </c>
       <c r="F1437" s="1" t="s">
-        <v>4887</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="1438" spans="1:6" x14ac:dyDescent="0.3">
@@ -41783,7 +41783,7 @@
         <v>3419</v>
       </c>
       <c r="F1438" s="1" t="s">
-        <v>4888</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="1439" spans="1:6" x14ac:dyDescent="0.3">
@@ -41800,7 +41800,7 @@
         <v>2849</v>
       </c>
       <c r="F1439" s="1" t="s">
-        <v>4902</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="1440" spans="1:6" x14ac:dyDescent="0.3">
@@ -41817,58 +41817,58 @@
         <v>3424</v>
       </c>
       <c r="F1440" s="1" t="s">
-        <v>4903</v>
+        <v>4902</v>
       </c>
     </row>
     <row r="1441" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1441" s="1" t="s">
+        <v>5141</v>
+      </c>
+      <c r="B1441" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C1441" s="1" t="s">
         <v>5142</v>
       </c>
-      <c r="B1441" s="1" t="s">
-        <v>2161</v>
-      </c>
-      <c r="C1441" s="1" t="s">
-        <v>5143</v>
-      </c>
       <c r="E1441" s="1" t="s">
-        <v>5152</v>
+        <v>5151</v>
       </c>
       <c r="F1441" s="3" t="s">
-        <v>5109</v>
+        <v>5108</v>
       </c>
     </row>
     <row r="1442" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1442" s="1" t="s">
+        <v>5144</v>
+      </c>
+      <c r="B1442" s="1" t="s">
+        <v>2161</v>
+      </c>
+      <c r="C1442" s="1" t="s">
         <v>5145</v>
       </c>
-      <c r="B1442" s="1" t="s">
-        <v>2161</v>
-      </c>
-      <c r="C1442" s="1" t="s">
-        <v>5146</v>
-      </c>
       <c r="E1442" s="3" t="s">
+        <v>5152</v>
+      </c>
+      <c r="F1442" s="3" t="s">
         <v>5153</v>
-      </c>
-      <c r="F1442" s="3" t="s">
-        <v>5154</v>
       </c>
     </row>
     <row r="1443" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1443" s="1" t="s">
-        <v>5150</v>
+        <v>5149</v>
       </c>
       <c r="B1443" s="1" t="s">
         <v>2161</v>
       </c>
       <c r="C1443" s="1" t="s">
+        <v>5146</v>
+      </c>
+      <c r="E1443" s="1" t="s">
         <v>5147</v>
       </c>
-      <c r="E1443" s="1" t="s">
-        <v>5148</v>
-      </c>
       <c r="F1443" s="3" t="s">
-        <v>5113</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="1444" spans="1:6" x14ac:dyDescent="0.3">
@@ -41885,7 +41885,7 @@
         <v>2751</v>
       </c>
       <c r="F1444" s="1" t="s">
-        <v>4889</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="1445" spans="1:6" x14ac:dyDescent="0.3">
@@ -41902,7 +41902,7 @@
         <v>2754</v>
       </c>
       <c r="F1445" s="1" t="s">
-        <v>4890</v>
+        <v>4889</v>
       </c>
     </row>
     <row r="1446" spans="1:6" x14ac:dyDescent="0.3">
@@ -41919,7 +41919,7 @@
         <v>2757</v>
       </c>
       <c r="F1446" s="1" t="s">
-        <v>4891</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="1447" spans="1:6" x14ac:dyDescent="0.3">
@@ -41936,7 +41936,7 @@
         <v>2760</v>
       </c>
       <c r="F1447" s="1" t="s">
-        <v>4892</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="1448" spans="1:6" x14ac:dyDescent="0.3">
@@ -41953,7 +41953,7 @@
         <v>2763</v>
       </c>
       <c r="F1448" s="1" t="s">
-        <v>4893</v>
+        <v>4892</v>
       </c>
     </row>
     <row r="1449" spans="1:6" x14ac:dyDescent="0.3">
@@ -41970,7 +41970,7 @@
         <v>2766</v>
       </c>
       <c r="F1449" s="1" t="s">
-        <v>4894</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="1450" spans="1:6" x14ac:dyDescent="0.3">
@@ -41987,7 +41987,7 @@
         <v>2769</v>
       </c>
       <c r="F1450" s="1" t="s">
-        <v>4895</v>
+        <v>4894</v>
       </c>
     </row>
     <row r="1451" spans="1:6" x14ac:dyDescent="0.3">
@@ -42004,7 +42004,7 @@
         <v>2772</v>
       </c>
       <c r="F1451" s="1" t="s">
-        <v>4896</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="1452" spans="1:6" x14ac:dyDescent="0.3">
@@ -42021,7 +42021,7 @@
         <v>2775</v>
       </c>
       <c r="F1452" s="1" t="s">
-        <v>4897</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="1453" spans="1:6" x14ac:dyDescent="0.3">
@@ -42038,7 +42038,7 @@
         <v>2778</v>
       </c>
       <c r="F1453" s="1" t="s">
-        <v>4898</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="1454" spans="1:6" x14ac:dyDescent="0.3">
@@ -42055,7 +42055,7 @@
         <v>2781</v>
       </c>
       <c r="F1454" s="1" t="s">
-        <v>4899</v>
+        <v>4898</v>
       </c>
     </row>
     <row r="1455" spans="1:6" x14ac:dyDescent="0.3">
@@ -42072,7 +42072,7 @@
         <v>2784</v>
       </c>
       <c r="F1455" s="1" t="s">
-        <v>4900</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="1456" spans="1:6" x14ac:dyDescent="0.3">
@@ -42089,7 +42089,7 @@
         <v>2787</v>
       </c>
       <c r="F1456" s="1" t="s">
-        <v>4901</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="1457" spans="1:6" x14ac:dyDescent="0.3">
@@ -42106,7 +42106,7 @@
         <v>3453</v>
       </c>
       <c r="F1457" s="4" t="s">
-        <v>4875</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="1458" spans="1:6" x14ac:dyDescent="0.3">
@@ -42123,7 +42123,7 @@
         <v>3456</v>
       </c>
       <c r="F1458" s="4" t="s">
-        <v>4876</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="1459" spans="1:6" x14ac:dyDescent="0.3">
@@ -42140,7 +42140,7 @@
         <v>2849</v>
       </c>
       <c r="F1459" s="4" t="s">
-        <v>4902</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="1460" spans="1:6" x14ac:dyDescent="0.3">
@@ -42154,10 +42154,10 @@
         <v>3460</v>
       </c>
       <c r="E1460" s="1" t="s">
-        <v>5144</v>
+        <v>5143</v>
       </c>
       <c r="F1460" s="4" t="s">
-        <v>4903</v>
+        <v>4902</v>
       </c>
     </row>
     <row r="1461" spans="1:6" x14ac:dyDescent="0.3">
@@ -42171,10 +42171,10 @@
         <v>3462</v>
       </c>
       <c r="E1461" s="1" t="s">
-        <v>5149</v>
+        <v>5148</v>
       </c>
       <c r="F1461" s="4" t="s">
-        <v>4904</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="1462" spans="1:6" x14ac:dyDescent="0.3">
@@ -42191,7 +42191,7 @@
         <v>3465</v>
       </c>
       <c r="F1462" s="4" t="s">
-        <v>4905</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="1463" spans="1:6" x14ac:dyDescent="0.3">
@@ -42208,7 +42208,7 @@
         <v>3468</v>
       </c>
       <c r="F1463" s="4" t="s">
-        <v>4960</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="1464" spans="1:6" x14ac:dyDescent="0.3">
@@ -42225,7 +42225,7 @@
         <v>3471</v>
       </c>
       <c r="F1464" s="4" t="s">
-        <v>4961</v>
+        <v>4960</v>
       </c>
     </row>
   </sheetData>

--- a/Pull Request Here/NewRatkinPlus - 1578693166/NewRatkinPlus - 1578693166.xlsx
+++ b/Pull Request Here/NewRatkinPlus - 1578693166/NewRatkinPlus - 1578693166.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5620BF-162C-4B62-BD7E-5C2EF27C8947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06B4ECB-B27D-4BF7-BB3A-5F0E00B46537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16807,10 +16807,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[PAWN_nameDef](은)는 부유한 가정에서 태어났습니다. [PAWN_pronoun]는 다양한 미술품 사이에서 금지옥엽으로 자랐기 때문에 할 줄 아는 것은 그리 많지 않습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Romany Kid</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -16843,10 +16839,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[PAWN_nameDef](은)는 인간의 조수로 어려서부터 작은 일들을 도왔습니다. [PAWN_pronoun]는 주인이 사고로 죽자, 스스로의 삶을 찾기 위해 길을 나섰습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[PAWN_nameDef](은)는 군용 실험체로서 유전자 조작이 가해진 채 인간들의 실험실에서 태어났습니다. [PAWN_pronoun]는 자유를 향한 깊은 갈망을 느꼈고 탈출을 결심했습니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -16879,10 +16871,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[PAWN_nameDef]은 목장을 운영하고 있습니다. [PAWN_pronoun]에게 많은 가축들이 있지만, 오염된 함선의 추락으로 이제는 과거 이야기에 불과합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[PAWN_nameDef](은)는 도시에서 장사하는 상인입니다. [PAWN_pronoun]는 손재주가 좋아 시장에서 이것저것 물건을 팔았습니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -16891,18 +16879,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[PAWN_nameDef](은)는 랫킨 왕국의 귀족입니다. 하지만 정치적 사건에 휘말려 망명을 할 수밖에 없었고, [PAWN_pronoun]는 언젠가 다시 돌아가기 위해 방랑생활을 하게 되었습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 하인의 자식으로 태어났습니다. [PAWN_pronoun]도 법에 따라 하인이 되지만, 운명을 바꾸고자 도망쳤습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 평범한 아이였습니다. [PAWN_pronoun]는 일반적인 가정에서 부모님들이 하는 일을 어깨너머로 이것저것 배웠습니다. 하지만 고등 교육을 받지 못하여 전문적인 지식은 쌓을 수 없었습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[PAWN_nameDef](은)는 암흑 속에서 태어났습니다. [PAWN_pronoun]는 오랜 동굴 생활을 하며 땅을 파는 일이 능숙하게 되었지만, 한편으로 많은 동족이 지상으로 나갈 때 이를 뒤로했습니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -16931,10 +16907,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[PAWN_nameDef](은)는 아이들을 가르치는 교사입니다. 하지만 어린이들이 모두 떠난 시골마을에서 할 수 있는 것은 없기에, [PAWN_pronoun]는 꿈이 있는 새로운 터전을 찾기 위해 떠나야 했습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Ratkin Petty Theft</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -16963,18 +16935,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[PAWN_nameDef](은)는 전쟁터 속에서 랫킨을 살리는 의사였습니다. [PAWN_pronoun]는 작은 생명이라도 동족이라는 사명감으로 자원하였지만, 결국 바뀌는 것이 없다는 사실에 떠났습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[PAWN_nameDef]은 남을 속여 돈을 버는데 뛰어난 재능이 있었습니다. 하지만 머지않아 탄로나게 되었고 [PAWN_pronoun]은 도망을 쳐야할 수밖에 없었습니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[PAWN_nameDef](은)는 남을 속여 돈을 버는데 뛰어난 재능이 있었습니다. 하지만 머지않아 탄로나게 되었고, [PAWN_pronoun]는 도망을 쳐야 할 수밖에 없었습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[PAWN_nameDef](은)는 수녀로 랫킨사회에서 제사나 종교적인 일들을 맡아왔습니다. [PAWN_pronoun]는 종교행사를 위해 먼 곳을 이동하던 중 습격을 받았지만, 다행히 가까스로 탈출할 수 있었습니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -17047,10 +17011,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>털이 풍만한 대왕 햄스터 가죽입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>A domesticated rat of unusually large size and intelligence.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -17080,6 +17040,46 @@
   </si>
   <si>
     <t>로티 마일던은 작은 장난들을 좋아하는 시골 소녀입니다.\n\n그녀의 자잘한 장난들은 지루하지 않게 해주지만 가끔은 큰 사고도 저지릅니다.\n\n무작위의 작은 사건이 자주 발생하는 대신 큰 사건은 보다 적게 발생합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 목장을 운영하고 있습니다. [PAWN_pronoun]에게 많은 가축들이 있지만, 오염된 함선의 추락으로 이제는 과거 이야기에 불과합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 인간의 조수로 어려서부터 작은 일들을 도왔습니다. 어느 날 주인이 사고로 죽자, [PAWN_pronoun]는 스스로의 삶을 찾기 위해 길을 나섰습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 하인의 자식으로 태어났습니다. [PAWN_pronoun]도 법에 따라 하인이 되지만, 자신의 운명을 바꾸고자 도망쳤습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 평범한 가정에서 태어났습니다. [PAWN_pronoun]는 일반적인 가정에서 부모님들이 하는 일을 어깨너머로 이것저것 배웠습니다. 하지만 고등 교육을 받지 못하여 전문적인 지식은 쌓을 수 없었습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 부유한 가문에서 태어났습니다. [PAWN_pronoun]는 다양한 미술품 사이에서 금지옥엽으로 자랐기 때문에 할 줄 아는 것은 그리 많지 않습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 랫킨 왕국의 귀족입니다. 하지만 [PAWN_pronoun]는 정치 스캔들에 휘말려 망명을 할 수밖에 없었고, 언젠가 다시 돌아가기 위해 방랑생활을 하게 되었습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 아이들을 가르치는 교사입니다. 하지만 어린이들이 모두 떠난 시골마을에서 할 수 있는 것은 없기에, [PAWN_pronoun]도 꿈이 있는 새로운 터전을 찾기 위해 떠나야 했습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 전쟁터 속에서 랫킨을 살리는 의사였습니다. [PAWN_pronoun]는 소모품으로 여겨지는 생명이라도 동족이라는 사명감으로 자원하였지만, 결국 바뀌는 것이 없다는 사실에 떠났습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 남을 속여 돈을 버는데 뛰어난 재능이 있었습니다. 하지만 머지않아 들통나게 되었고, [PAWN_pronoun]는 도망을 쳐야 할 수밖에 없었습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>털이 풍만한 대왕 햄스터 가죽입니다. 더운 환경에서 사용하기에 좋은 옷감입니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -17595,7 +17595,7 @@
         <v>3452</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>5205</v>
+        <v>5199</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -17646,7 +17646,7 @@
         <v>3451</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>5204</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -17986,7 +17986,7 @@
         <v>3471</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>5180</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -18136,7 +18136,7 @@
         <v>100</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>5187</v>
+        <v>5186</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>3478</v>
@@ -18170,7 +18170,7 @@
         <v>105</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>5186</v>
+        <v>5185</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>3480</v>
@@ -18241,7 +18241,7 @@
         <v>117</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>5182</v>
+        <v>5181</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -18255,10 +18255,10 @@
         <v>119</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>5181</v>
+        <v>5180</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>5183</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -18326,7 +18326,7 @@
         <v>130</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>5184</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -18411,7 +18411,7 @@
         <v>144</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>5185</v>
+        <v>5184</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -18428,7 +18428,7 @@
         <v>3499</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>5203</v>
+        <v>5242</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -18479,7 +18479,7 @@
         <v>3496</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>5202</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -18527,10 +18527,10 @@
         <v>162</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>5188</v>
+        <v>5187</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>5189</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -18683,7 +18683,7 @@
         <v>3509</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>5190</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -18697,7 +18697,7 @@
         <v>187</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>5212</v>
+        <v>5205</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>3510</v>
@@ -18734,7 +18734,7 @@
         <v>193</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>5191</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -18765,7 +18765,7 @@
         <v>198</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>5193</v>
+        <v>5191</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>3513</v>
@@ -18785,7 +18785,7 @@
         <v>201</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>5192</v>
+        <v>5190</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -18799,7 +18799,7 @@
         <v>203</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>5194</v>
+        <v>5192</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>3514</v>
@@ -18816,7 +18816,7 @@
         <v>205</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>5195</v>
+        <v>5193</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>3515</v>
@@ -18836,7 +18836,7 @@
         <v>3516</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>5206</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -18887,7 +18887,7 @@
         <v>3519</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>5207</v>
+        <v>5201</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -18938,7 +18938,7 @@
         <v>224</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>5196</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -18989,7 +18989,7 @@
         <v>232</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>5197</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -19040,7 +19040,7 @@
         <v>3527</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>5198</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -19142,7 +19142,7 @@
         <v>3536</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>5201</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -19193,7 +19193,7 @@
         <v>3539</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>5199</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -19244,7 +19244,7 @@
         <v>3541</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>5200</v>
+        <v>5197</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -19292,7 +19292,7 @@
         <v>280</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>5208</v>
+        <v>5202</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>3544</v>
@@ -19394,10 +19394,10 @@
         <v>297</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>5209</v>
+        <v>5203</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>5210</v>
+        <v>5204</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -19448,7 +19448,7 @@
         <v>3552</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>5211</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -19652,7 +19652,7 @@
         <v>341</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>5213</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -19802,7 +19802,7 @@
         <v>366</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>5215</v>
+        <v>5208</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>3573</v>
@@ -19819,10 +19819,10 @@
         <v>368</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>5214</v>
+        <v>5207</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>5216</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -19907,7 +19907,7 @@
         <v>383</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>5217</v>
+        <v>5210</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -19955,10 +19955,10 @@
         <v>391</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>5218</v>
+        <v>5211</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>5219</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -20057,10 +20057,10 @@
         <v>408</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>5220</v>
+        <v>5212</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>5221</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -20108,10 +20108,10 @@
         <v>416</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>5225</v>
+        <v>5216</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>5222</v>
+        <v>5213</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -20159,7 +20159,7 @@
         <v>424</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>5223</v>
+        <v>5214</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>3588</v>
@@ -20210,7 +20210,7 @@
         <v>432</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>5224</v>
+        <v>5215</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>3591</v>
@@ -20312,7 +20312,7 @@
         <v>449</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>5226</v>
+        <v>5217</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>3597</v>
@@ -20417,7 +20417,7 @@
         <v>3603</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>5227</v>
+        <v>5218</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -20468,7 +20468,7 @@
         <v>475</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>5228</v>
+        <v>5219</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -20516,7 +20516,7 @@
         <v>481</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>5229</v>
+        <v>5220</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>5085</v>
@@ -20567,10 +20567,10 @@
         <v>488</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>5230</v>
+        <v>5221</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>5231</v>
+        <v>5222</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -20652,7 +20652,7 @@
         <v>502</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>5232</v>
+        <v>5223</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>3515</v>
@@ -20720,7 +20720,7 @@
         <v>513</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>5233</v>
+        <v>5224</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>3614</v>
@@ -22403,7 +22403,7 @@
         <v>788</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>5236</v>
+        <v>5227</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>3687</v>
@@ -22454,7 +22454,7 @@
         <v>795</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>5234</v>
+        <v>5225</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>3689</v>
@@ -22471,7 +22471,7 @@
         <v>3690</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>5235</v>
+        <v>5226</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>3691</v>
@@ -22778,7 +22778,7 @@
         <v>843</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>5237</v>
+        <v>5228</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>3545</v>
@@ -23454,7 +23454,7 @@
         <v>947</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>5238</v>
+        <v>5229</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>3749</v>
@@ -24749,7 +24749,7 @@
         <v>3816</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>5248</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.3">
@@ -25718,7 +25718,7 @@
         <v>3876</v>
       </c>
       <c r="F484" s="1" t="s">
-        <v>5239</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.3">
@@ -25786,7 +25786,7 @@
         <v>3876</v>
       </c>
       <c r="F488" s="1" t="s">
-        <v>5239</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.3">
@@ -26024,7 +26024,7 @@
         <v>3890</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>5240</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
@@ -26089,7 +26089,7 @@
         <v>1341</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>5241</v>
+        <v>5231</v>
       </c>
       <c r="F506" s="1" t="s">
         <v>3895</v>
@@ -26262,7 +26262,7 @@
         <v>760</v>
       </c>
       <c r="F516" s="1" t="s">
-        <v>5242</v>
+        <v>5232</v>
       </c>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.3">
@@ -30988,7 +30988,7 @@
         <v>2056</v>
       </c>
       <c r="F794" s="1" t="s">
-        <v>5246</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.3">
@@ -31005,7 +31005,7 @@
         <v>2059</v>
       </c>
       <c r="F795" s="1" t="s">
-        <v>5247</v>
+        <v>5237</v>
       </c>
     </row>
     <row r="796" spans="1:6" x14ac:dyDescent="0.3">
@@ -31022,7 +31022,7 @@
         <v>5158</v>
       </c>
       <c r="F796" s="3" t="s">
-        <v>5243</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="797" spans="1:6" x14ac:dyDescent="0.3">
@@ -31090,7 +31090,7 @@
         <v>2073</v>
       </c>
       <c r="F800" s="1" t="s">
-        <v>5245</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.3">
@@ -31359,7 +31359,7 @@
         <v>2116</v>
       </c>
       <c r="E816" s="1" t="s">
-        <v>5244</v>
+        <v>5234</v>
       </c>
       <c r="F816" s="1" t="s">
         <v>4176</v>

--- a/Pull Request Here/NewRatkinPlus - 1578693166/NewRatkinPlus - 1578693166.xlsx
+++ b/Pull Request Here/NewRatkinPlus - 1578693166/NewRatkinPlus - 1578693166.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06B4ECB-B27D-4BF7-BB3A-5F0E00B46537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE62D6CB-BA08-4CD3-9B65-482AE61132BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17059,10 +17059,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[PAWN_nameDef](은)는 부유한 가문에서 태어났습니다. [PAWN_pronoun]는 다양한 미술품 사이에서 금지옥엽으로 자랐기 때문에 할 줄 아는 것은 그리 많지 않습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[PAWN_nameDef](은)는 랫킨 왕국의 귀족입니다. 하지만 [PAWN_pronoun]는 정치 스캔들에 휘말려 망명을 할 수밖에 없었고, 언젠가 다시 돌아가기 위해 방랑생활을 하게 되었습니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -17080,6 +17076,10 @@
   </si>
   <si>
     <t>털이 풍만한 대왕 햄스터 가죽입니다. 더운 환경에서 사용하기에 좋은 옷감입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 부유한 집안에서 태어났습니다. [PAWN_pronoun]는 다양한 미술품 사이에서 금지옥엽으로 자랐기 때문에 할 줄 아는 것은 그리 많지 않습니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -17986,7 +17986,7 @@
         <v>3471</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>5243</v>
+        <v>5248</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -19142,7 +19142,7 @@
         <v>3536</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>5244</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -19448,7 +19448,7 @@
         <v>3552</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>5245</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -19958,7 +19958,7 @@
         <v>5211</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>5246</v>
+        <v>5245</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -20060,7 +20060,7 @@
         <v>5212</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>5247</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -26024,7 +26024,7 @@
         <v>3890</v>
       </c>
       <c r="F502" s="1" t="s">
-        <v>5248</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="503" spans="1:6" x14ac:dyDescent="0.3">
